--- a/public/Pelanggan/wil.xlsx
+++ b/public/Pelanggan/wil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riank\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F528173-DC7A-4755-8205-94259AC6D127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5275C1-CB09-4961-879C-1B8AE417319A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{C1021028-D3A9-4293-8DD3-1255C1240086}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{C1021028-D3A9-4293-8DD3-1255C1240086}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="965">
   <si>
     <t>WILAYAH I</t>
   </si>
@@ -1483,6 +1483,1449 @@
   </si>
   <si>
     <t>Sindang Palay</t>
+  </si>
+  <si>
+    <t>0101002</t>
+  </si>
+  <si>
+    <t>0101018</t>
+  </si>
+  <si>
+    <t>0101009</t>
+  </si>
+  <si>
+    <t>0101016</t>
+  </si>
+  <si>
+    <t>0101007</t>
+  </si>
+  <si>
+    <t>0101019</t>
+  </si>
+  <si>
+    <t>0101014</t>
+  </si>
+  <si>
+    <t>0101005</t>
+  </si>
+  <si>
+    <t>0101012</t>
+  </si>
+  <si>
+    <t>0101003</t>
+  </si>
+  <si>
+    <t>0101010</t>
+  </si>
+  <si>
+    <t>0101001</t>
+  </si>
+  <si>
+    <t>0101017</t>
+  </si>
+  <si>
+    <t>0101008</t>
+  </si>
+  <si>
+    <t>0101015</t>
+  </si>
+  <si>
+    <t>0101006</t>
+  </si>
+  <si>
+    <t>0101013</t>
+  </si>
+  <si>
+    <t>0101004</t>
+  </si>
+  <si>
+    <t>0101011</t>
+  </si>
+  <si>
+    <t>0102008</t>
+  </si>
+  <si>
+    <t>0102015</t>
+  </si>
+  <si>
+    <t>0102005</t>
+  </si>
+  <si>
+    <t>0102013</t>
+  </si>
+  <si>
+    <t>0102003</t>
+  </si>
+  <si>
+    <t>0102011</t>
+  </si>
+  <si>
+    <t>0102001</t>
+  </si>
+  <si>
+    <t>0102009</t>
+  </si>
+  <si>
+    <t>0102006</t>
+  </si>
+  <si>
+    <t>0102014</t>
+  </si>
+  <si>
+    <t>0102004</t>
+  </si>
+  <si>
+    <t>0102012</t>
+  </si>
+  <si>
+    <t>0102002</t>
+  </si>
+  <si>
+    <t>0102010</t>
+  </si>
+  <si>
+    <t>0106002</t>
+  </si>
+  <si>
+    <t>0106009</t>
+  </si>
+  <si>
+    <t>0106007</t>
+  </si>
+  <si>
+    <t>0106005</t>
+  </si>
+  <si>
+    <t>0106003</t>
+  </si>
+  <si>
+    <t>0106001</t>
+  </si>
+  <si>
+    <t>0106008</t>
+  </si>
+  <si>
+    <t>0106006</t>
+  </si>
+  <si>
+    <t>0106004</t>
+  </si>
+  <si>
+    <t>0107003</t>
+  </si>
+  <si>
+    <t>0107001</t>
+  </si>
+  <si>
+    <t>0107005</t>
+  </si>
+  <si>
+    <t>0107004</t>
+  </si>
+  <si>
+    <t>0107002</t>
+  </si>
+  <si>
+    <t>0108004</t>
+  </si>
+  <si>
+    <t>0108002</t>
+  </si>
+  <si>
+    <t>0108005</t>
+  </si>
+  <si>
+    <t>0108003</t>
+  </si>
+  <si>
+    <t>0108001</t>
+  </si>
+  <si>
+    <t>0108011</t>
+  </si>
+  <si>
+    <t>0201002</t>
+  </si>
+  <si>
+    <t>0201001</t>
+  </si>
+  <si>
+    <t>0201004</t>
+  </si>
+  <si>
+    <t>0202001</t>
+  </si>
+  <si>
+    <t>0203002</t>
+  </si>
+  <si>
+    <t>0203003</t>
+  </si>
+  <si>
+    <t>0203001</t>
+  </si>
+  <si>
+    <t>0204002</t>
+  </si>
+  <si>
+    <t>0204001</t>
+  </si>
+  <si>
+    <t>0301004</t>
+  </si>
+  <si>
+    <t>0301002</t>
+  </si>
+  <si>
+    <t>0301007</t>
+  </si>
+  <si>
+    <t>0301005</t>
+  </si>
+  <si>
+    <t>0301003</t>
+  </si>
+  <si>
+    <t>0301001</t>
+  </si>
+  <si>
+    <t>0301006</t>
+  </si>
+  <si>
+    <t>0302002</t>
+  </si>
+  <si>
+    <t>0302003</t>
+  </si>
+  <si>
+    <t>0302001</t>
+  </si>
+  <si>
+    <t>0303003</t>
+  </si>
+  <si>
+    <t>0303001</t>
+  </si>
+  <si>
+    <t>0303004</t>
+  </si>
+  <si>
+    <t>0303002</t>
+  </si>
+  <si>
+    <t>0304001</t>
+  </si>
+  <si>
+    <t>0401006</t>
+  </si>
+  <si>
+    <t>0401004</t>
+  </si>
+  <si>
+    <t>0401002</t>
+  </si>
+  <si>
+    <t>0401007</t>
+  </si>
+  <si>
+    <t>0401005</t>
+  </si>
+  <si>
+    <t>0401003</t>
+  </si>
+  <si>
+    <t>0401001</t>
+  </si>
+  <si>
+    <t>0402008</t>
+  </si>
+  <si>
+    <t>0402006</t>
+  </si>
+  <si>
+    <t>0402004</t>
+  </si>
+  <si>
+    <t>0402002</t>
+  </si>
+  <si>
+    <t>0402007</t>
+  </si>
+  <si>
+    <t>0402005</t>
+  </si>
+  <si>
+    <t>0402003</t>
+  </si>
+  <si>
+    <t>0402001</t>
+  </si>
+  <si>
+    <t>0403007</t>
+  </si>
+  <si>
+    <t>0403005</t>
+  </si>
+  <si>
+    <t>0403003</t>
+  </si>
+  <si>
+    <t>0403001</t>
+  </si>
+  <si>
+    <t>0403008</t>
+  </si>
+  <si>
+    <t>0403006</t>
+  </si>
+  <si>
+    <t>0403004</t>
+  </si>
+  <si>
+    <t>0403002</t>
+  </si>
+  <si>
+    <t>0404002</t>
+  </si>
+  <si>
+    <t>0404001</t>
+  </si>
+  <si>
+    <t>0405004</t>
+  </si>
+  <si>
+    <t>0405002</t>
+  </si>
+  <si>
+    <t>0405001</t>
+  </si>
+  <si>
+    <t>0405005</t>
+  </si>
+  <si>
+    <t>0405003</t>
+  </si>
+  <si>
+    <t>0405006</t>
+  </si>
+  <si>
+    <t>0406006</t>
+  </si>
+  <si>
+    <t>0406004</t>
+  </si>
+  <si>
+    <t>0406002</t>
+  </si>
+  <si>
+    <t>0406007</t>
+  </si>
+  <si>
+    <t>0406005</t>
+  </si>
+  <si>
+    <t>0406003</t>
+  </si>
+  <si>
+    <t>0406001</t>
+  </si>
+  <si>
+    <t>0501006</t>
+  </si>
+  <si>
+    <t>0501003</t>
+  </si>
+  <si>
+    <t>0501004</t>
+  </si>
+  <si>
+    <t>0501001</t>
+  </si>
+  <si>
+    <t>0501008</t>
+  </si>
+  <si>
+    <t>0501007</t>
+  </si>
+  <si>
+    <t>0501005</t>
+  </si>
+  <si>
+    <t>0501002</t>
+  </si>
+  <si>
+    <t>0502002</t>
+  </si>
+  <si>
+    <t>0502003</t>
+  </si>
+  <si>
+    <t>0502001</t>
+  </si>
+  <si>
+    <t>0503004</t>
+  </si>
+  <si>
+    <t>0503002</t>
+  </si>
+  <si>
+    <t>0503006</t>
+  </si>
+  <si>
+    <t>0503005</t>
+  </si>
+  <si>
+    <t>0503003</t>
+  </si>
+  <si>
+    <t>0503001</t>
+  </si>
+  <si>
+    <t>0504001</t>
+  </si>
+  <si>
+    <t>0505002</t>
+  </si>
+  <si>
+    <t>0505005</t>
+  </si>
+  <si>
+    <t>0505003</t>
+  </si>
+  <si>
+    <t>0505001</t>
+  </si>
+  <si>
+    <t>0505006</t>
+  </si>
+  <si>
+    <t>0505004</t>
+  </si>
+  <si>
+    <t>0601004</t>
+  </si>
+  <si>
+    <t>0601011</t>
+  </si>
+  <si>
+    <t>0601002</t>
+  </si>
+  <si>
+    <t>0601009</t>
+  </si>
+  <si>
+    <t>0601007</t>
+  </si>
+  <si>
+    <t>0601005</t>
+  </si>
+  <si>
+    <t>0601012</t>
+  </si>
+  <si>
+    <t>0601003</t>
+  </si>
+  <si>
+    <t>0601010</t>
+  </si>
+  <si>
+    <t>0601001</t>
+  </si>
+  <si>
+    <t>0601008</t>
+  </si>
+  <si>
+    <t>0601006</t>
+  </si>
+  <si>
+    <t>0602001</t>
+  </si>
+  <si>
+    <t>0602004</t>
+  </si>
+  <si>
+    <t>0602002</t>
+  </si>
+  <si>
+    <t>0602005</t>
+  </si>
+  <si>
+    <t>0602003</t>
+  </si>
+  <si>
+    <t>0603003</t>
+  </si>
+  <si>
+    <t>0603001</t>
+  </si>
+  <si>
+    <t>0603004</t>
+  </si>
+  <si>
+    <t>0603002</t>
+  </si>
+  <si>
+    <t>0603005</t>
+  </si>
+  <si>
+    <t>0604005</t>
+  </si>
+  <si>
+    <t>0604003</t>
+  </si>
+  <si>
+    <t>0604001</t>
+  </si>
+  <si>
+    <t>0604004</t>
+  </si>
+  <si>
+    <t>0604002</t>
+  </si>
+  <si>
+    <t>0605002</t>
+  </si>
+  <si>
+    <t>0605005</t>
+  </si>
+  <si>
+    <t>0605003</t>
+  </si>
+  <si>
+    <t>0605001</t>
+  </si>
+  <si>
+    <t>0605006</t>
+  </si>
+  <si>
+    <t>0605004</t>
+  </si>
+  <si>
+    <t>0606003</t>
+  </si>
+  <si>
+    <t>0606001</t>
+  </si>
+  <si>
+    <t>0606006</t>
+  </si>
+  <si>
+    <t>0606004</t>
+  </si>
+  <si>
+    <t>0606002</t>
+  </si>
+  <si>
+    <t>0606005</t>
+  </si>
+  <si>
+    <t>0701006</t>
+  </si>
+  <si>
+    <t>0701004</t>
+  </si>
+  <si>
+    <t>0701002</t>
+  </si>
+  <si>
+    <t>0701009</t>
+  </si>
+  <si>
+    <t>0701007</t>
+  </si>
+  <si>
+    <t>0701005</t>
+  </si>
+  <si>
+    <t>0701003</t>
+  </si>
+  <si>
+    <t>0701001</t>
+  </si>
+  <si>
+    <t>0701008</t>
+  </si>
+  <si>
+    <t>0702004</t>
+  </si>
+  <si>
+    <t>0702002</t>
+  </si>
+  <si>
+    <t>0702008</t>
+  </si>
+  <si>
+    <t>0702005</t>
+  </si>
+  <si>
+    <t>0702003</t>
+  </si>
+  <si>
+    <t>0702001</t>
+  </si>
+  <si>
+    <t>0702009</t>
+  </si>
+  <si>
+    <t>0702006</t>
+  </si>
+  <si>
+    <t>0703008</t>
+  </si>
+  <si>
+    <t>0703003</t>
+  </si>
+  <si>
+    <t>0703001</t>
+  </si>
+  <si>
+    <t>0703011</t>
+  </si>
+  <si>
+    <t>0703009</t>
+  </si>
+  <si>
+    <t>0703005</t>
+  </si>
+  <si>
+    <t>0703004</t>
+  </si>
+  <si>
+    <t>0703002</t>
+  </si>
+  <si>
+    <t>0703010</t>
+  </si>
+  <si>
+    <t>0704013</t>
+  </si>
+  <si>
+    <t>0704004</t>
+  </si>
+  <si>
+    <t>0704011</t>
+  </si>
+  <si>
+    <t>0704002</t>
+  </si>
+  <si>
+    <t>0704009</t>
+  </si>
+  <si>
+    <t>0704007</t>
+  </si>
+  <si>
+    <t>0704014</t>
+  </si>
+  <si>
+    <t>0704005</t>
+  </si>
+  <si>
+    <t>0704012</t>
+  </si>
+  <si>
+    <t>0704003</t>
+  </si>
+  <si>
+    <t>0704010</t>
+  </si>
+  <si>
+    <t>0704001</t>
+  </si>
+  <si>
+    <t>0704008</t>
+  </si>
+  <si>
+    <t>0704006</t>
+  </si>
+  <si>
+    <t>0705006</t>
+  </si>
+  <si>
+    <t>0705005</t>
+  </si>
+  <si>
+    <t>0706001</t>
+  </si>
+  <si>
+    <t>0707003</t>
+  </si>
+  <si>
+    <t>0707001</t>
+  </si>
+  <si>
+    <t>0707004</t>
+  </si>
+  <si>
+    <t>0707002</t>
+  </si>
+  <si>
+    <t>0801004</t>
+  </si>
+  <si>
+    <t>0801006</t>
+  </si>
+  <si>
+    <t>0801002</t>
+  </si>
+  <si>
+    <t>0801005</t>
+  </si>
+  <si>
+    <t>0801003</t>
+  </si>
+  <si>
+    <t>0801001</t>
+  </si>
+  <si>
+    <t>0802003</t>
+  </si>
+  <si>
+    <t>0802001</t>
+  </si>
+  <si>
+    <t>0802004</t>
+  </si>
+  <si>
+    <t>0802002</t>
+  </si>
+  <si>
+    <t>0803004</t>
+  </si>
+  <si>
+    <t>0803002</t>
+  </si>
+  <si>
+    <t>0803005</t>
+  </si>
+  <si>
+    <t>0803003</t>
+  </si>
+  <si>
+    <t>0803001</t>
+  </si>
+  <si>
+    <t>0804001</t>
+  </si>
+  <si>
+    <t>0804002</t>
+  </si>
+  <si>
+    <t>0804003</t>
+  </si>
+  <si>
+    <t>0901005</t>
+  </si>
+  <si>
+    <t>0901003</t>
+  </si>
+  <si>
+    <t>0901001</t>
+  </si>
+  <si>
+    <t>0901006</t>
+  </si>
+  <si>
+    <t>0901004</t>
+  </si>
+  <si>
+    <t>0901002</t>
+  </si>
+  <si>
+    <t>0902001</t>
+  </si>
+  <si>
+    <t>0902002</t>
+  </si>
+  <si>
+    <t>0902003</t>
+  </si>
+  <si>
+    <t>0903005</t>
+  </si>
+  <si>
+    <t>0903003</t>
+  </si>
+  <si>
+    <t>0903001</t>
+  </si>
+  <si>
+    <t>0903004</t>
+  </si>
+  <si>
+    <t>0903002</t>
+  </si>
+  <si>
+    <t>0904005</t>
+  </si>
+  <si>
+    <t>0904003</t>
+  </si>
+  <si>
+    <t>0904001</t>
+  </si>
+  <si>
+    <t>0904004</t>
+  </si>
+  <si>
+    <t>0904002</t>
+  </si>
+  <si>
+    <t>0905004</t>
+  </si>
+  <si>
+    <t>0905002</t>
+  </si>
+  <si>
+    <t>0905003</t>
+  </si>
+  <si>
+    <t>0905001</t>
+  </si>
+  <si>
+    <t>0906005</t>
+  </si>
+  <si>
+    <t>0906003</t>
+  </si>
+  <si>
+    <t>0906001</t>
+  </si>
+  <si>
+    <t>0906006</t>
+  </si>
+  <si>
+    <t>0906004</t>
+  </si>
+  <si>
+    <t>0906002</t>
+  </si>
+  <si>
+    <t>0907001</t>
+  </si>
+  <si>
+    <t>0907002</t>
+  </si>
+  <si>
+    <t>0907003</t>
+  </si>
+  <si>
+    <t>0908001</t>
+  </si>
+  <si>
+    <t>0908002</t>
+  </si>
+  <si>
+    <t>0909003</t>
+  </si>
+  <si>
+    <t>0909002</t>
+  </si>
+  <si>
+    <t>0909001</t>
+  </si>
+  <si>
+    <t>0910001</t>
+  </si>
+  <si>
+    <t>0910005</t>
+  </si>
+  <si>
+    <t>0910004</t>
+  </si>
+  <si>
+    <t>0910009</t>
+  </si>
+  <si>
+    <t>0910002</t>
+  </si>
+  <si>
+    <t>0910110</t>
+  </si>
+  <si>
+    <t>0910007</t>
+  </si>
+  <si>
+    <t>0910010</t>
+  </si>
+  <si>
+    <t>0910003</t>
+  </si>
+  <si>
+    <t>0910006</t>
+  </si>
+  <si>
+    <t>1001005</t>
+  </si>
+  <si>
+    <t>1001003</t>
+  </si>
+  <si>
+    <t>1001001</t>
+  </si>
+  <si>
+    <t>1001008</t>
+  </si>
+  <si>
+    <t>1001006</t>
+  </si>
+  <si>
+    <t>1001004</t>
+  </si>
+  <si>
+    <t>1001002</t>
+  </si>
+  <si>
+    <t>1001007</t>
+  </si>
+  <si>
+    <t>1001009</t>
+  </si>
+  <si>
+    <t>1002004</t>
+  </si>
+  <si>
+    <t>1002002</t>
+  </si>
+  <si>
+    <t>1002003</t>
+  </si>
+  <si>
+    <t>1002001</t>
+  </si>
+  <si>
+    <t>1003003</t>
+  </si>
+  <si>
+    <t>1003001</t>
+  </si>
+  <si>
+    <t>1003002</t>
+  </si>
+  <si>
+    <t>1004004</t>
+  </si>
+  <si>
+    <t>1004002</t>
+  </si>
+  <si>
+    <t>1004003</t>
+  </si>
+  <si>
+    <t>1004001</t>
+  </si>
+  <si>
+    <t>1005001</t>
+  </si>
+  <si>
+    <t>1006001</t>
+  </si>
+  <si>
+    <t>1101001</t>
+  </si>
+  <si>
+    <t>1101006</t>
+  </si>
+  <si>
+    <t>1101004</t>
+  </si>
+  <si>
+    <t>1101002</t>
+  </si>
+  <si>
+    <t>1101007</t>
+  </si>
+  <si>
+    <t>1101005</t>
+  </si>
+  <si>
+    <t>1101003</t>
+  </si>
+  <si>
+    <t>1102001</t>
+  </si>
+  <si>
+    <t>1102006</t>
+  </si>
+  <si>
+    <t>1102004</t>
+  </si>
+  <si>
+    <t>1102002</t>
+  </si>
+  <si>
+    <t>1102007</t>
+  </si>
+  <si>
+    <t>1102005</t>
+  </si>
+  <si>
+    <t>1102003</t>
+  </si>
+  <si>
+    <t>1103003</t>
+  </si>
+  <si>
+    <t>1103010</t>
+  </si>
+  <si>
+    <t>1103001</t>
+  </si>
+  <si>
+    <t>1103008</t>
+  </si>
+  <si>
+    <t>1103006</t>
+  </si>
+  <si>
+    <t>1103004</t>
+  </si>
+  <si>
+    <t>1103011</t>
+  </si>
+  <si>
+    <t>1103002</t>
+  </si>
+  <si>
+    <t>1103009</t>
+  </si>
+  <si>
+    <t>1103007</t>
+  </si>
+  <si>
+    <t>1103005</t>
+  </si>
+  <si>
+    <t>1104008</t>
+  </si>
+  <si>
+    <t>1104006</t>
+  </si>
+  <si>
+    <t>1104004</t>
+  </si>
+  <si>
+    <t>1104002</t>
+  </si>
+  <si>
+    <t>1104007</t>
+  </si>
+  <si>
+    <t>1104005</t>
+  </si>
+  <si>
+    <t>1104003</t>
+  </si>
+  <si>
+    <t>1104001</t>
+  </si>
+  <si>
+    <t>1105007</t>
+  </si>
+  <si>
+    <t>1105005</t>
+  </si>
+  <si>
+    <t>1105003</t>
+  </si>
+  <si>
+    <t>1105001</t>
+  </si>
+  <si>
+    <t>1105008</t>
+  </si>
+  <si>
+    <t>1105006</t>
+  </si>
+  <si>
+    <t>1105004</t>
+  </si>
+  <si>
+    <t>1105002</t>
+  </si>
+  <si>
+    <t>1105009</t>
+  </si>
+  <si>
+    <t>1106006</t>
+  </si>
+  <si>
+    <t>1106004</t>
+  </si>
+  <si>
+    <t>1106002</t>
+  </si>
+  <si>
+    <t>1106005</t>
+  </si>
+  <si>
+    <t>1106003</t>
+  </si>
+  <si>
+    <t>1106001</t>
+  </si>
+  <si>
+    <t>1107002</t>
+  </si>
+  <si>
+    <t>1107003</t>
+  </si>
+  <si>
+    <t>1107001</t>
+  </si>
+  <si>
+    <t>1201001</t>
+  </si>
+  <si>
+    <t>1202004</t>
+  </si>
+  <si>
+    <t>1202002</t>
+  </si>
+  <si>
+    <t>1202005</t>
+  </si>
+  <si>
+    <t>1202003</t>
+  </si>
+  <si>
+    <t>1202001</t>
+  </si>
+  <si>
+    <t>1203002</t>
+  </si>
+  <si>
+    <t>1203009</t>
+  </si>
+  <si>
+    <t>1203005</t>
+  </si>
+  <si>
+    <t>1203003</t>
+  </si>
+  <si>
+    <t>1203007</t>
+  </si>
+  <si>
+    <t>1203004</t>
+  </si>
+  <si>
+    <t>1204006</t>
+  </si>
+  <si>
+    <t>1204003</t>
+  </si>
+  <si>
+    <t>1204004</t>
+  </si>
+  <si>
+    <t>1204001</t>
+  </si>
+  <si>
+    <t>1204007</t>
+  </si>
+  <si>
+    <t>1205010</t>
+  </si>
+  <si>
+    <t>1205007</t>
+  </si>
+  <si>
+    <t>1205005</t>
+  </si>
+  <si>
+    <t>1205003</t>
+  </si>
+  <si>
+    <t>1205001</t>
+  </si>
+  <si>
+    <t>1205008</t>
+  </si>
+  <si>
+    <t>1205006</t>
+  </si>
+  <si>
+    <t>1205004</t>
+  </si>
+  <si>
+    <t>1205002</t>
+  </si>
+  <si>
+    <t>1205009</t>
+  </si>
+  <si>
+    <t>1206001</t>
+  </si>
+  <si>
+    <t>1207004</t>
+  </si>
+  <si>
+    <t>1207001</t>
+  </si>
+  <si>
+    <t>1207003</t>
+  </si>
+  <si>
+    <t>1207002</t>
+  </si>
+  <si>
+    <t>1301008</t>
+  </si>
+  <si>
+    <t>1301005</t>
+  </si>
+  <si>
+    <t>1301001</t>
+  </si>
+  <si>
+    <t>1301006</t>
+  </si>
+  <si>
+    <t>1301003</t>
+  </si>
+  <si>
+    <t>1301011</t>
+  </si>
+  <si>
+    <t>1301009</t>
+  </si>
+  <si>
+    <t>1301007</t>
+  </si>
+  <si>
+    <t>1301004</t>
+  </si>
+  <si>
+    <t>1301012</t>
+  </si>
+  <si>
+    <t>1301002</t>
+  </si>
+  <si>
+    <t>1301010</t>
+  </si>
+  <si>
+    <t>1306002</t>
+  </si>
+  <si>
+    <t>1306005</t>
+  </si>
+  <si>
+    <t>1307004</t>
+  </si>
+  <si>
+    <t>1307066</t>
+  </si>
+  <si>
+    <t>1307002</t>
+  </si>
+  <si>
+    <t>1307006</t>
+  </si>
+  <si>
+    <t>1307008</t>
+  </si>
+  <si>
+    <t>1307005</t>
+  </si>
+  <si>
+    <t>1307077</t>
+  </si>
+  <si>
+    <t>1307003</t>
+  </si>
+  <si>
+    <t>1307012</t>
+  </si>
+  <si>
+    <t>1307011</t>
+  </si>
+  <si>
+    <t>1307001</t>
+  </si>
+  <si>
+    <t>1307055</t>
+  </si>
+  <si>
+    <t>1307010</t>
+  </si>
+  <si>
+    <t>1307007</t>
+  </si>
+  <si>
+    <t>1401002</t>
+  </si>
+  <si>
+    <t>1401001</t>
+  </si>
+  <si>
+    <t>1401003</t>
+  </si>
+  <si>
+    <t>1402001</t>
+  </si>
+  <si>
+    <t>1402002</t>
+  </si>
+  <si>
+    <t>1403001</t>
+  </si>
+  <si>
+    <t>1403003</t>
+  </si>
+  <si>
+    <t>1403002</t>
+  </si>
+  <si>
+    <t>1404002</t>
+  </si>
+  <si>
+    <t>1404003</t>
+  </si>
+  <si>
+    <t>1404001</t>
+  </si>
+  <si>
+    <t>1405003</t>
+  </si>
+  <si>
+    <t>1405002</t>
+  </si>
+  <si>
+    <t>1405001</t>
+  </si>
+  <si>
+    <t>1406001</t>
+  </si>
+  <si>
+    <t>3102008</t>
+  </si>
+  <si>
+    <t>3102012</t>
+  </si>
+  <si>
+    <t>3102005</t>
+  </si>
+  <si>
+    <t>3102003</t>
+  </si>
+  <si>
+    <t>3102001</t>
+  </si>
+  <si>
+    <t>3102014</t>
+  </si>
+  <si>
+    <t>3102007</t>
+  </si>
+  <si>
+    <t>3102004</t>
+  </si>
+  <si>
+    <t>3102002</t>
+  </si>
+  <si>
+    <t>3103007</t>
+  </si>
+  <si>
+    <t>3103005</t>
+  </si>
+  <si>
+    <t>3103012</t>
+  </si>
+  <si>
+    <t>3103003</t>
+  </si>
+  <si>
+    <t>3103010</t>
+  </si>
+  <si>
+    <t>3103001</t>
+  </si>
+  <si>
+    <t>3103008</t>
+  </si>
+  <si>
+    <t>3103006</t>
+  </si>
+  <si>
+    <t>3103004</t>
+  </si>
+  <si>
+    <t>3103011</t>
+  </si>
+  <si>
+    <t>3103002</t>
+  </si>
+  <si>
+    <t>3103009</t>
+  </si>
+  <si>
+    <t>3104011</t>
+  </si>
+  <si>
+    <t>3104002</t>
+  </si>
+  <si>
+    <t>3104009</t>
+  </si>
+  <si>
+    <t>3104007</t>
+  </si>
+  <si>
+    <t>3104014</t>
+  </si>
+  <si>
+    <t>3104005</t>
+  </si>
+  <si>
+    <t>3104012</t>
+  </si>
+  <si>
+    <t>3104003</t>
+  </si>
+  <si>
+    <t>3104010</t>
+  </si>
+  <si>
+    <t>3104001</t>
+  </si>
+  <si>
+    <t>3104008</t>
+  </si>
+  <si>
+    <t>3104016</t>
+  </si>
+  <si>
+    <t>3104015</t>
+  </si>
+  <si>
+    <t>3104006</t>
+  </si>
+  <si>
+    <t>3104017</t>
+  </si>
+  <si>
+    <t>3104013</t>
+  </si>
+  <si>
+    <t>3104004</t>
+  </si>
+  <si>
+    <t>3105005</t>
+  </si>
+  <si>
+    <t>3105003</t>
+  </si>
+  <si>
+    <t>3105001</t>
+  </si>
+  <si>
+    <t>3105004</t>
+  </si>
+  <si>
+    <t>3105002</t>
   </si>
 </sst>
 </file>
@@ -1843,14 +3286,18 @@
   <dimension ref="B1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
-        <v>101002</v>
+      <c r="B1" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>25</v>
@@ -1863,8 +3310,8 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>101018</v>
+      <c r="B2" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1877,8 +3324,8 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
-        <v>101009</v>
+      <c r="B3" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -1891,8 +3338,8 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>101016</v>
+      <c r="B4" s="1" t="s">
+        <v>487</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
@@ -1905,8 +3352,8 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>101007</v>
+      <c r="B5" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
@@ -1919,8 +3366,8 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>101019</v>
+      <c r="B6" s="1" t="s">
+        <v>489</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
@@ -1933,8 +3380,8 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>101014</v>
+      <c r="B7" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
@@ -1947,8 +3394,8 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>101005</v>
+      <c r="B8" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
@@ -1961,8 +3408,8 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>101012</v>
+      <c r="B9" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>33</v>
@@ -1975,8 +3422,8 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>101003</v>
+      <c r="B10" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>34</v>
@@ -1989,8 +3436,8 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>101010</v>
+      <c r="B11" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>35</v>
@@ -2003,8 +3450,8 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>101001</v>
+      <c r="B12" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>36</v>
@@ -2017,8 +3464,8 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>101017</v>
+      <c r="B13" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>37</v>
@@ -2031,8 +3478,8 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>101008</v>
+      <c r="B14" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>38</v>
@@ -2045,8 +3492,8 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>101015</v>
+      <c r="B15" s="1" t="s">
+        <v>498</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>39</v>
@@ -2059,8 +3506,8 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>101006</v>
+      <c r="B16" s="1" t="s">
+        <v>499</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>40</v>
@@ -2073,8 +3520,8 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <v>101013</v>
+      <c r="B17" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>41</v>
@@ -2087,8 +3534,8 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <v>101004</v>
+      <c r="B18" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>42</v>
@@ -2101,8 +3548,8 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <v>101011</v>
+      <c r="B19" s="1" t="s">
+        <v>502</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>43</v>
@@ -2115,8 +3562,8 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
-        <v>102008</v>
+      <c r="B20" s="1" t="s">
+        <v>503</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>44</v>
@@ -2129,8 +3576,8 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <v>102015</v>
+      <c r="B21" s="1" t="s">
+        <v>504</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>45</v>
@@ -2143,8 +3590,8 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
-        <v>102005</v>
+      <c r="B22" s="1" t="s">
+        <v>505</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>46</v>
@@ -2157,8 +3604,8 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
-        <v>102013</v>
+      <c r="B23" s="1" t="s">
+        <v>506</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>47</v>
@@ -2171,8 +3618,8 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
-        <v>102003</v>
+      <c r="B24" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>48</v>
@@ -2185,8 +3632,8 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <v>102011</v>
+      <c r="B25" s="1" t="s">
+        <v>508</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>49</v>
@@ -2199,8 +3646,8 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <v>102001</v>
+      <c r="B26" s="1" t="s">
+        <v>509</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>50</v>
@@ -2213,8 +3660,8 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
-        <v>102009</v>
+      <c r="B27" s="1" t="s">
+        <v>510</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>51</v>
@@ -2227,8 +3674,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
-        <v>102006</v>
+      <c r="B28" s="1" t="s">
+        <v>511</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>52</v>
@@ -2241,8 +3688,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
-        <v>102014</v>
+      <c r="B29" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>53</v>
@@ -2255,8 +3702,8 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
-        <v>102004</v>
+      <c r="B30" s="1" t="s">
+        <v>513</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>54</v>
@@ -2269,8 +3716,8 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
-        <v>102012</v>
+      <c r="B31" s="1" t="s">
+        <v>514</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>55</v>
@@ -2283,8 +3730,8 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="1">
-        <v>102002</v>
+      <c r="B32" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>56</v>
@@ -2297,8 +3744,8 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="1">
-        <v>102010</v>
+      <c r="B33" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>57</v>
@@ -2311,8 +3758,8 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="1">
-        <v>106002</v>
+      <c r="B34" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>58</v>
@@ -2325,8 +3772,8 @@
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="1">
-        <v>106009</v>
+      <c r="B35" s="1" t="s">
+        <v>518</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>59</v>
@@ -2339,8 +3786,8 @@
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="1">
-        <v>106007</v>
+      <c r="B36" s="1" t="s">
+        <v>519</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>60</v>
@@ -2353,8 +3800,8 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="1">
-        <v>106005</v>
+      <c r="B37" s="1" t="s">
+        <v>520</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>61</v>
@@ -2367,8 +3814,8 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="1">
-        <v>106003</v>
+      <c r="B38" s="1" t="s">
+        <v>521</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>62</v>
@@ -2381,8 +3828,8 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="1">
-        <v>106001</v>
+      <c r="B39" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>63</v>
@@ -2395,8 +3842,8 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="1">
-        <v>106008</v>
+      <c r="B40" s="1" t="s">
+        <v>523</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>64</v>
@@ -2409,8 +3856,8 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="1">
-        <v>106006</v>
+      <c r="B41" s="1" t="s">
+        <v>524</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>65</v>
@@ -2423,8 +3870,8 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="1">
-        <v>106004</v>
+      <c r="B42" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>66</v>
@@ -2437,8 +3884,8 @@
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="1">
-        <v>107003</v>
+      <c r="B43" s="1" t="s">
+        <v>526</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>67</v>
@@ -2451,8 +3898,8 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="1">
-        <v>107001</v>
+      <c r="B44" s="1" t="s">
+        <v>527</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>68</v>
@@ -2465,8 +3912,8 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="1">
-        <v>107005</v>
+      <c r="B45" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>69</v>
@@ -2479,8 +3926,8 @@
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="1">
-        <v>107004</v>
+      <c r="B46" s="1" t="s">
+        <v>529</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>70</v>
@@ -2493,8 +3940,8 @@
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="1">
-        <v>107002</v>
+      <c r="B47" s="1" t="s">
+        <v>530</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>71</v>
@@ -2507,8 +3954,8 @@
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="1">
-        <v>108004</v>
+      <c r="B48" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>72</v>
@@ -2521,8 +3968,8 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="1">
-        <v>108002</v>
+      <c r="B49" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>73</v>
@@ -2535,8 +3982,8 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="1">
-        <v>108005</v>
+      <c r="B50" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>74</v>
@@ -2549,8 +3996,8 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="1">
-        <v>108003</v>
+      <c r="B51" s="1" t="s">
+        <v>534</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>75</v>
@@ -2563,8 +4010,8 @@
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="1">
-        <v>108001</v>
+      <c r="B52" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>76</v>
@@ -2577,8 +4024,8 @@
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="1">
-        <v>108011</v>
+      <c r="B53" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>77</v>
@@ -2591,8 +4038,8 @@
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="1">
-        <v>201002</v>
+      <c r="B54" s="1" t="s">
+        <v>537</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>78</v>
@@ -2605,8 +4052,8 @@
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="1">
-        <v>201001</v>
+      <c r="B55" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>79</v>
@@ -2619,8 +4066,8 @@
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="1">
-        <v>201004</v>
+      <c r="B56" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>80</v>
@@ -2633,8 +4080,8 @@
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="1">
-        <v>202001</v>
+      <c r="B57" s="1" t="s">
+        <v>540</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>81</v>
@@ -2647,8 +4094,8 @@
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="1">
-        <v>203002</v>
+      <c r="B58" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>82</v>
@@ -2661,8 +4108,8 @@
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="1">
-        <v>203003</v>
+      <c r="B59" s="1" t="s">
+        <v>542</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>83</v>
@@ -2675,8 +4122,8 @@
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="1">
-        <v>203001</v>
+      <c r="B60" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>84</v>
@@ -2689,8 +4136,8 @@
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="1">
-        <v>204002</v>
+      <c r="B61" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>85</v>
@@ -2703,8 +4150,8 @@
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="1">
-        <v>204001</v>
+      <c r="B62" s="1" t="s">
+        <v>545</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>86</v>
@@ -2717,8 +4164,8 @@
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="1">
-        <v>301004</v>
+      <c r="B63" s="1" t="s">
+        <v>546</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>87</v>
@@ -2731,8 +4178,8 @@
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="1">
-        <v>301002</v>
+      <c r="B64" s="1" t="s">
+        <v>547</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>88</v>
@@ -2745,8 +4192,8 @@
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="1">
-        <v>301007</v>
+      <c r="B65" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>89</v>
@@ -2759,8 +4206,8 @@
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="1">
-        <v>301005</v>
+      <c r="B66" s="1" t="s">
+        <v>549</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>90</v>
@@ -2773,8 +4220,8 @@
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="1">
-        <v>301003</v>
+      <c r="B67" s="1" t="s">
+        <v>550</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>91</v>
@@ -2787,8 +4234,8 @@
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="1">
-        <v>301001</v>
+      <c r="B68" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>92</v>
@@ -2801,8 +4248,8 @@
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="1">
-        <v>301006</v>
+      <c r="B69" s="1" t="s">
+        <v>552</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>93</v>
@@ -2815,8 +4262,8 @@
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="1">
-        <v>302002</v>
+      <c r="B70" s="1" t="s">
+        <v>553</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>94</v>
@@ -2829,8 +4276,8 @@
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="1">
-        <v>302003</v>
+      <c r="B71" s="1" t="s">
+        <v>554</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>95</v>
@@ -2843,8 +4290,8 @@
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="1">
-        <v>302001</v>
+      <c r="B72" s="1" t="s">
+        <v>555</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>96</v>
@@ -2857,8 +4304,8 @@
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="1">
-        <v>303003</v>
+      <c r="B73" s="1" t="s">
+        <v>556</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>97</v>
@@ -2871,8 +4318,8 @@
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="1">
-        <v>303001</v>
+      <c r="B74" s="1" t="s">
+        <v>557</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>92</v>
@@ -2885,8 +4332,8 @@
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="1">
-        <v>303004</v>
+      <c r="B75" s="1" t="s">
+        <v>558</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>98</v>
@@ -2899,8 +4346,8 @@
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="1">
-        <v>303002</v>
+      <c r="B76" s="1" t="s">
+        <v>559</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>99</v>
@@ -2913,8 +4360,8 @@
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="1">
-        <v>304001</v>
+      <c r="B77" s="1" t="s">
+        <v>560</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>100</v>
@@ -2927,8 +4374,8 @@
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="1">
-        <v>401006</v>
+      <c r="B78" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>101</v>
@@ -2941,8 +4388,8 @@
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="1">
-        <v>401004</v>
+      <c r="B79" s="1" t="s">
+        <v>562</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>102</v>
@@ -2955,8 +4402,8 @@
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="1">
-        <v>401002</v>
+      <c r="B80" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>103</v>
@@ -2969,8 +4416,8 @@
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="1">
-        <v>401007</v>
+      <c r="B81" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>104</v>
@@ -2983,8 +4430,8 @@
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="1">
-        <v>401005</v>
+      <c r="B82" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>105</v>
@@ -2997,8 +4444,8 @@
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="1">
-        <v>401003</v>
+      <c r="B83" s="1" t="s">
+        <v>566</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>106</v>
@@ -3011,8 +4458,8 @@
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="1">
-        <v>401001</v>
+      <c r="B84" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>103</v>
@@ -3025,8 +4472,8 @@
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="1">
-        <v>402008</v>
+      <c r="B85" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>46</v>
@@ -3039,8 +4486,8 @@
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="1">
-        <v>402006</v>
+      <c r="B86" s="1" t="s">
+        <v>569</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>107</v>
@@ -3053,8 +4500,8 @@
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="1">
-        <v>402004</v>
+      <c r="B87" s="1" t="s">
+        <v>570</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>108</v>
@@ -3067,8 +4514,8 @@
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="1">
-        <v>402002</v>
+      <c r="B88" s="1" t="s">
+        <v>571</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>109</v>
@@ -3081,8 +4528,8 @@
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="1">
-        <v>402007</v>
+      <c r="B89" s="1" t="s">
+        <v>572</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>110</v>
@@ -3095,8 +4542,8 @@
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="1">
-        <v>402005</v>
+      <c r="B90" s="1" t="s">
+        <v>573</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>111</v>
@@ -3109,8 +4556,8 @@
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="1">
-        <v>402003</v>
+      <c r="B91" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>109</v>
@@ -3123,8 +4570,8 @@
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="1">
-        <v>402001</v>
+      <c r="B92" s="1" t="s">
+        <v>575</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>109</v>
@@ -3137,8 +4584,8 @@
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="1">
-        <v>403007</v>
+      <c r="B93" s="1" t="s">
+        <v>576</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>112</v>
@@ -3151,8 +4598,8 @@
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="1">
-        <v>403005</v>
+      <c r="B94" s="1" t="s">
+        <v>577</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>113</v>
@@ -3165,8 +4612,8 @@
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="1">
-        <v>403003</v>
+      <c r="B95" s="1" t="s">
+        <v>578</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>114</v>
@@ -3179,8 +4626,8 @@
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="1">
-        <v>403001</v>
+      <c r="B96" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>115</v>
@@ -3193,8 +4640,8 @@
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="1">
-        <v>403008</v>
+      <c r="B97" s="1" t="s">
+        <v>580</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>116</v>
@@ -3207,8 +4654,8 @@
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="1">
-        <v>403006</v>
+      <c r="B98" s="1" t="s">
+        <v>581</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>117</v>
@@ -3221,8 +4668,8 @@
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="1">
-        <v>403004</v>
+      <c r="B99" s="1" t="s">
+        <v>582</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>118</v>
@@ -3235,8 +4682,8 @@
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="1">
-        <v>403002</v>
+      <c r="B100" s="1" t="s">
+        <v>583</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>119</v>
@@ -3249,8 +4696,8 @@
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="1">
-        <v>404002</v>
+      <c r="B101" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>120</v>
@@ -3263,8 +4710,8 @@
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="1">
-        <v>404001</v>
+      <c r="B102" s="1" t="s">
+        <v>585</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>120</v>
@@ -3277,8 +4724,8 @@
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="1">
-        <v>405004</v>
+      <c r="B103" s="1" t="s">
+        <v>586</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>121</v>
@@ -3291,8 +4738,8 @@
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="1">
-        <v>405002</v>
+      <c r="B104" s="1" t="s">
+        <v>587</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>122</v>
@@ -3305,8 +4752,8 @@
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="1">
-        <v>405001</v>
+      <c r="B105" s="1" t="s">
+        <v>588</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>123</v>
@@ -3319,8 +4766,8 @@
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="1">
-        <v>405005</v>
+      <c r="B106" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>124</v>
@@ -3333,8 +4780,8 @@
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="1">
-        <v>405003</v>
+      <c r="B107" s="1" t="s">
+        <v>590</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>125</v>
@@ -3347,8 +4794,8 @@
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="1">
-        <v>405006</v>
+      <c r="B108" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>126</v>
@@ -3361,8 +4808,8 @@
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="1">
-        <v>406006</v>
+      <c r="B109" s="1" t="s">
+        <v>592</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>127</v>
@@ -3375,8 +4822,8 @@
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="1">
-        <v>406004</v>
+      <c r="B110" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>128</v>
@@ -3389,8 +4836,8 @@
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="1">
-        <v>406002</v>
+      <c r="B111" s="1" t="s">
+        <v>594</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>129</v>
@@ -3403,8 +4850,8 @@
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="1">
-        <v>406007</v>
+      <c r="B112" s="1" t="s">
+        <v>595</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>130</v>
@@ -3417,8 +4864,8 @@
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="1">
-        <v>406005</v>
+      <c r="B113" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>131</v>
@@ -3431,8 +4878,8 @@
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="1">
-        <v>406003</v>
+      <c r="B114" s="1" t="s">
+        <v>597</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>132</v>
@@ -3445,8 +4892,8 @@
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="1">
-        <v>406001</v>
+      <c r="B115" s="1" t="s">
+        <v>598</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>133</v>
@@ -3459,8 +4906,8 @@
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="1">
-        <v>501006</v>
+      <c r="B116" s="1" t="s">
+        <v>599</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>134</v>
@@ -3473,8 +4920,8 @@
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="1">
-        <v>501003</v>
+      <c r="B117" s="1" t="s">
+        <v>600</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>135</v>
@@ -3487,8 +4934,8 @@
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="1">
-        <v>501004</v>
+      <c r="B118" s="1" t="s">
+        <v>601</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>136</v>
@@ -3501,8 +4948,8 @@
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="1">
-        <v>501001</v>
+      <c r="B119" s="1" t="s">
+        <v>602</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>137</v>
@@ -3515,8 +4962,8 @@
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="1">
-        <v>501008</v>
+      <c r="B120" s="1" t="s">
+        <v>603</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>138</v>
@@ -3529,8 +4976,8 @@
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="1">
-        <v>501007</v>
+      <c r="B121" s="1" t="s">
+        <v>604</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>139</v>
@@ -3543,8 +4990,8 @@
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="1">
-        <v>501005</v>
+      <c r="B122" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>140</v>
@@ -3557,8 +5004,8 @@
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="1">
-        <v>501002</v>
+      <c r="B123" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>141</v>
@@ -3571,8 +5018,8 @@
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B124" s="1">
-        <v>502002</v>
+      <c r="B124" s="1" t="s">
+        <v>607</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>142</v>
@@ -3585,8 +5032,8 @@
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="1">
-        <v>502003</v>
+      <c r="B125" s="1" t="s">
+        <v>608</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>143</v>
@@ -3599,8 +5046,8 @@
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="1">
-        <v>502001</v>
+      <c r="B126" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>144</v>
@@ -3613,8 +5060,8 @@
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="1">
-        <v>503004</v>
+      <c r="B127" s="1" t="s">
+        <v>610</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>145</v>
@@ -3627,8 +5074,8 @@
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B128" s="1">
-        <v>503002</v>
+      <c r="B128" s="1" t="s">
+        <v>611</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>146</v>
@@ -3641,8 +5088,8 @@
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="1">
-        <v>503006</v>
+      <c r="B129" s="1" t="s">
+        <v>612</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>147</v>
@@ -3655,8 +5102,8 @@
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B130" s="1">
-        <v>503005</v>
+      <c r="B130" s="1" t="s">
+        <v>613</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>148</v>
@@ -3669,8 +5116,8 @@
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B131" s="1">
-        <v>503003</v>
+      <c r="B131" s="1" t="s">
+        <v>614</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>149</v>
@@ -3683,8 +5130,8 @@
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="1">
-        <v>503001</v>
+      <c r="B132" s="1" t="s">
+        <v>615</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>150</v>
@@ -3697,8 +5144,8 @@
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B133" s="1">
-        <v>504001</v>
+      <c r="B133" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>151</v>
@@ -3711,8 +5158,8 @@
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B134" s="1">
-        <v>505002</v>
+      <c r="B134" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>152</v>
@@ -3725,8 +5172,8 @@
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="1">
-        <v>505005</v>
+      <c r="B135" s="1" t="s">
+        <v>618</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>153</v>
@@ -3739,8 +5186,8 @@
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B136" s="1">
-        <v>505003</v>
+      <c r="B136" s="1" t="s">
+        <v>619</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>154</v>
@@ -3753,8 +5200,8 @@
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B137" s="1">
-        <v>505001</v>
+      <c r="B137" s="1" t="s">
+        <v>620</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>155</v>
@@ -3767,8 +5214,8 @@
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B138" s="1">
-        <v>505006</v>
+      <c r="B138" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>156</v>
@@ -3781,8 +5228,8 @@
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B139" s="1">
-        <v>505004</v>
+      <c r="B139" s="1" t="s">
+        <v>622</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>157</v>
@@ -3795,8 +5242,8 @@
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B140" s="1">
-        <v>601004</v>
+      <c r="B140" s="1" t="s">
+        <v>623</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>158</v>
@@ -3809,8 +5256,8 @@
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B141" s="1">
-        <v>601011</v>
+      <c r="B141" s="1" t="s">
+        <v>624</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>159</v>
@@ -3823,8 +5270,8 @@
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B142" s="1">
-        <v>601002</v>
+      <c r="B142" s="1" t="s">
+        <v>625</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>160</v>
@@ -3837,8 +5284,8 @@
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B143" s="1">
-        <v>601009</v>
+      <c r="B143" s="1" t="s">
+        <v>626</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>161</v>
@@ -3851,8 +5298,8 @@
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B144" s="1">
-        <v>601007</v>
+      <c r="B144" s="1" t="s">
+        <v>627</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>162</v>
@@ -3865,8 +5312,8 @@
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B145" s="1">
-        <v>601005</v>
+      <c r="B145" s="1" t="s">
+        <v>628</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>163</v>
@@ -3879,8 +5326,8 @@
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B146" s="1">
-        <v>601012</v>
+      <c r="B146" s="1" t="s">
+        <v>629</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>164</v>
@@ -3893,8 +5340,8 @@
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B147" s="1">
-        <v>601003</v>
+      <c r="B147" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>165</v>
@@ -3907,8 +5354,8 @@
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="1">
-        <v>601010</v>
+      <c r="B148" s="1" t="s">
+        <v>631</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>166</v>
@@ -3921,8 +5368,8 @@
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" s="1">
-        <v>601001</v>
+      <c r="B149" s="1" t="s">
+        <v>632</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>167</v>
@@ -3935,8 +5382,8 @@
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B150" s="1">
-        <v>601008</v>
+      <c r="B150" s="1" t="s">
+        <v>633</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>168</v>
@@ -3949,8 +5396,8 @@
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B151" s="1">
-        <v>601006</v>
+      <c r="B151" s="1" t="s">
+        <v>634</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>169</v>
@@ -3963,8 +5410,8 @@
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B152" s="1">
-        <v>602001</v>
+      <c r="B152" s="1" t="s">
+        <v>635</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>170</v>
@@ -3977,8 +5424,8 @@
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B153" s="1">
-        <v>602004</v>
+      <c r="B153" s="1" t="s">
+        <v>636</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>171</v>
@@ -3991,8 +5438,8 @@
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B154" s="1">
-        <v>602002</v>
+      <c r="B154" s="1" t="s">
+        <v>637</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>172</v>
@@ -4005,8 +5452,8 @@
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B155" s="1">
-        <v>602005</v>
+      <c r="B155" s="1" t="s">
+        <v>638</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>173</v>
@@ -4019,8 +5466,8 @@
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B156" s="1">
-        <v>602003</v>
+      <c r="B156" s="1" t="s">
+        <v>639</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>174</v>
@@ -4033,8 +5480,8 @@
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B157" s="1">
-        <v>603003</v>
+      <c r="B157" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>175</v>
@@ -4047,8 +5494,8 @@
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B158" s="1">
-        <v>603001</v>
+      <c r="B158" s="1" t="s">
+        <v>641</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>176</v>
@@ -4061,8 +5508,8 @@
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B159" s="1">
-        <v>603004</v>
+      <c r="B159" s="1" t="s">
+        <v>642</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>177</v>
@@ -4075,8 +5522,8 @@
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B160" s="1">
-        <v>603002</v>
+      <c r="B160" s="1" t="s">
+        <v>643</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>178</v>
@@ -4089,8 +5536,8 @@
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B161" s="1">
-        <v>603005</v>
+      <c r="B161" s="1" t="s">
+        <v>644</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>179</v>
@@ -4103,8 +5550,8 @@
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B162" s="1">
-        <v>604005</v>
+      <c r="B162" s="1" t="s">
+        <v>645</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>180</v>
@@ -4117,8 +5564,8 @@
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B163" s="1">
-        <v>604003</v>
+      <c r="B163" s="1" t="s">
+        <v>646</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>181</v>
@@ -4131,8 +5578,8 @@
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B164" s="1">
-        <v>604001</v>
+      <c r="B164" s="1" t="s">
+        <v>647</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>182</v>
@@ -4145,8 +5592,8 @@
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B165" s="1">
-        <v>604004</v>
+      <c r="B165" s="1" t="s">
+        <v>648</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>183</v>
@@ -4159,8 +5606,8 @@
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B166" s="1">
-        <v>604002</v>
+      <c r="B166" s="1" t="s">
+        <v>649</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>184</v>
@@ -4173,8 +5620,8 @@
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B167" s="1">
-        <v>605002</v>
+      <c r="B167" s="1" t="s">
+        <v>650</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>185</v>
@@ -4187,8 +5634,8 @@
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B168" s="1">
-        <v>605005</v>
+      <c r="B168" s="1" t="s">
+        <v>651</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>186</v>
@@ -4201,8 +5648,8 @@
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B169" s="1">
-        <v>605003</v>
+      <c r="B169" s="1" t="s">
+        <v>652</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>187</v>
@@ -4215,8 +5662,8 @@
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B170" s="1">
-        <v>605001</v>
+      <c r="B170" s="1" t="s">
+        <v>653</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>188</v>
@@ -4229,8 +5676,8 @@
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B171" s="1">
-        <v>605006</v>
+      <c r="B171" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>189</v>
@@ -4243,8 +5690,8 @@
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B172" s="1">
-        <v>605004</v>
+      <c r="B172" s="1" t="s">
+        <v>655</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>190</v>
@@ -4257,8 +5704,8 @@
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B173" s="1">
-        <v>606003</v>
+      <c r="B173" s="1" t="s">
+        <v>656</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>191</v>
@@ -4271,8 +5718,8 @@
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B174" s="1">
-        <v>606001</v>
+      <c r="B174" s="1" t="s">
+        <v>657</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>192</v>
@@ -4285,8 +5732,8 @@
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B175" s="1">
-        <v>606006</v>
+      <c r="B175" s="1" t="s">
+        <v>658</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>193</v>
@@ -4299,8 +5746,8 @@
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B176" s="1">
-        <v>606004</v>
+      <c r="B176" s="1" t="s">
+        <v>659</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>194</v>
@@ -4313,8 +5760,8 @@
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B177" s="1">
-        <v>606002</v>
+      <c r="B177" s="1" t="s">
+        <v>660</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>195</v>
@@ -4327,8 +5774,8 @@
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B178" s="1">
-        <v>606005</v>
+      <c r="B178" s="1" t="s">
+        <v>661</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>196</v>
@@ -4341,8 +5788,8 @@
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B179" s="1">
-        <v>701006</v>
+      <c r="B179" s="1" t="s">
+        <v>662</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>197</v>
@@ -4355,8 +5802,8 @@
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B180" s="1">
-        <v>701004</v>
+      <c r="B180" s="1" t="s">
+        <v>663</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>198</v>
@@ -4369,8 +5816,8 @@
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B181" s="1">
-        <v>701002</v>
+      <c r="B181" s="1" t="s">
+        <v>664</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>199</v>
@@ -4383,8 +5830,8 @@
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B182" s="1">
-        <v>701009</v>
+      <c r="B182" s="1" t="s">
+        <v>665</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>200</v>
@@ -4397,8 +5844,8 @@
       </c>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B183" s="1">
-        <v>701007</v>
+      <c r="B183" s="1" t="s">
+        <v>666</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>201</v>
@@ -4411,8 +5858,8 @@
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B184" s="1">
-        <v>701005</v>
+      <c r="B184" s="1" t="s">
+        <v>667</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>202</v>
@@ -4425,8 +5872,8 @@
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B185" s="1">
-        <v>701003</v>
+      <c r="B185" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>203</v>
@@ -4439,8 +5886,8 @@
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B186" s="1">
-        <v>701001</v>
+      <c r="B186" s="1" t="s">
+        <v>669</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>204</v>
@@ -4453,8 +5900,8 @@
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B187" s="1">
-        <v>701008</v>
+      <c r="B187" s="1" t="s">
+        <v>670</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>205</v>
@@ -4467,8 +5914,8 @@
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B188" s="1">
-        <v>702004</v>
+      <c r="B188" s="1" t="s">
+        <v>671</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>206</v>
@@ -4481,8 +5928,8 @@
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B189" s="1">
-        <v>702002</v>
+      <c r="B189" s="1" t="s">
+        <v>672</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>199</v>
@@ -4495,8 +5942,8 @@
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B190" s="1">
-        <v>702008</v>
+      <c r="B190" s="1" t="s">
+        <v>673</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>205</v>
@@ -4509,8 +5956,8 @@
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B191" s="1">
-        <v>702005</v>
+      <c r="B191" s="1" t="s">
+        <v>674</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>207</v>
@@ -4523,8 +5970,8 @@
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B192" s="1">
-        <v>702003</v>
+      <c r="B192" s="1" t="s">
+        <v>675</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>208</v>
@@ -4537,8 +5984,8 @@
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B193" s="1">
-        <v>702001</v>
+      <c r="B193" s="1" t="s">
+        <v>676</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>209</v>
@@ -4551,8 +5998,8 @@
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B194" s="1">
-        <v>702009</v>
+      <c r="B194" s="1" t="s">
+        <v>677</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>210</v>
@@ -4565,8 +6012,8 @@
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B195" s="1">
-        <v>702006</v>
+      <c r="B195" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>211</v>
@@ -4579,8 +6026,8 @@
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B196" s="1">
-        <v>703008</v>
+      <c r="B196" s="1" t="s">
+        <v>679</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>212</v>
@@ -4593,8 +6040,8 @@
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B197" s="1">
-        <v>703003</v>
+      <c r="B197" s="1" t="s">
+        <v>680</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>162</v>
@@ -4607,8 +6054,8 @@
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B198" s="1">
-        <v>703001</v>
+      <c r="B198" s="1" t="s">
+        <v>681</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>213</v>
@@ -4621,8 +6068,8 @@
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B199" s="1">
-        <v>703011</v>
+      <c r="B199" s="1" t="s">
+        <v>682</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>214</v>
@@ -4635,8 +6082,8 @@
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B200" s="1">
-        <v>703009</v>
+      <c r="B200" s="1" t="s">
+        <v>683</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>215</v>
@@ -4649,8 +6096,8 @@
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B201" s="1">
-        <v>703005</v>
+      <c r="B201" s="1" t="s">
+        <v>684</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>216</v>
@@ -4663,8 +6110,8 @@
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B202" s="1">
-        <v>703004</v>
+      <c r="B202" s="1" t="s">
+        <v>685</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>217</v>
@@ -4677,8 +6124,8 @@
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B203" s="1">
-        <v>703002</v>
+      <c r="B203" s="1" t="s">
+        <v>686</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>218</v>
@@ -4691,8 +6138,8 @@
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B204" s="1">
-        <v>703010</v>
+      <c r="B204" s="1" t="s">
+        <v>687</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>219</v>
@@ -4705,8 +6152,8 @@
       </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B205" s="1">
-        <v>704013</v>
+      <c r="B205" s="1" t="s">
+        <v>688</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>220</v>
@@ -4719,8 +6166,8 @@
       </c>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B206" s="1">
-        <v>704004</v>
+      <c r="B206" s="1" t="s">
+        <v>689</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>221</v>
@@ -4733,8 +6180,8 @@
       </c>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B207" s="1">
-        <v>704011</v>
+      <c r="B207" s="1" t="s">
+        <v>690</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>222</v>
@@ -4747,8 +6194,8 @@
       </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B208" s="1">
-        <v>704002</v>
+      <c r="B208" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>223</v>
@@ -4761,8 +6208,8 @@
       </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B209" s="1">
-        <v>704009</v>
+      <c r="B209" s="1" t="s">
+        <v>692</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>224</v>
@@ -4775,8 +6222,8 @@
       </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B210" s="1">
-        <v>704007</v>
+      <c r="B210" s="1" t="s">
+        <v>693</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>225</v>
@@ -4789,8 +6236,8 @@
       </c>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B211" s="1">
-        <v>704014</v>
+      <c r="B211" s="1" t="s">
+        <v>694</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>226</v>
@@ -4803,8 +6250,8 @@
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B212" s="1">
-        <v>704005</v>
+      <c r="B212" s="1" t="s">
+        <v>695</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>227</v>
@@ -4817,8 +6264,8 @@
       </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B213" s="1">
-        <v>704012</v>
+      <c r="B213" s="1" t="s">
+        <v>696</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>228</v>
@@ -4831,8 +6278,8 @@
       </c>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B214" s="1">
-        <v>704003</v>
+      <c r="B214" s="1" t="s">
+        <v>697</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>229</v>
@@ -4845,8 +6292,8 @@
       </c>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B215" s="1">
-        <v>704010</v>
+      <c r="B215" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>230</v>
@@ -4859,8 +6306,8 @@
       </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B216" s="1">
-        <v>704001</v>
+      <c r="B216" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>213</v>
@@ -4873,8 +6320,8 @@
       </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B217" s="1">
-        <v>704008</v>
+      <c r="B217" s="1" t="s">
+        <v>700</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>231</v>
@@ -4887,8 +6334,8 @@
       </c>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B218" s="1">
-        <v>704006</v>
+      <c r="B218" s="1" t="s">
+        <v>701</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>232</v>
@@ -4901,8 +6348,8 @@
       </c>
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B219" s="1">
-        <v>705006</v>
+      <c r="B219" s="1" t="s">
+        <v>702</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>233</v>
@@ -4915,8 +6362,8 @@
       </c>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B220" s="1">
-        <v>705005</v>
+      <c r="B220" s="1" t="s">
+        <v>703</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>234</v>
@@ -4929,8 +6376,8 @@
       </c>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B221" s="1">
-        <v>706001</v>
+      <c r="B221" s="1" t="s">
+        <v>704</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>235</v>
@@ -4943,8 +6390,8 @@
       </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B222" s="1">
-        <v>707003</v>
+      <c r="B222" s="1" t="s">
+        <v>705</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>236</v>
@@ -4957,8 +6404,8 @@
       </c>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B223" s="1">
-        <v>707001</v>
+      <c r="B223" s="1" t="s">
+        <v>706</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>213</v>
@@ -4971,8 +6418,8 @@
       </c>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B224" s="1">
-        <v>707004</v>
+      <c r="B224" s="1" t="s">
+        <v>707</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>237</v>
@@ -4985,8 +6432,8 @@
       </c>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B225" s="1">
-        <v>707002</v>
+      <c r="B225" s="1" t="s">
+        <v>708</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>238</v>
@@ -4999,8 +6446,8 @@
       </c>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B226" s="1">
-        <v>801004</v>
+      <c r="B226" s="1" t="s">
+        <v>709</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>239</v>
@@ -5013,8 +6460,8 @@
       </c>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B227" s="1">
-        <v>801006</v>
+      <c r="B227" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>240</v>
@@ -5027,8 +6474,8 @@
       </c>
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B228" s="1">
-        <v>801002</v>
+      <c r="B228" s="1" t="s">
+        <v>711</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>241</v>
@@ -5041,8 +6488,8 @@
       </c>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B229" s="1">
-        <v>801005</v>
+      <c r="B229" s="1" t="s">
+        <v>712</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>242</v>
@@ -5055,8 +6502,8 @@
       </c>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B230" s="1">
-        <v>801003</v>
+      <c r="B230" s="1" t="s">
+        <v>713</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>243</v>
@@ -5069,8 +6516,8 @@
       </c>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B231" s="1">
-        <v>801001</v>
+      <c r="B231" s="1" t="s">
+        <v>714</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>244</v>
@@ -5083,8 +6530,8 @@
       </c>
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B232" s="1">
-        <v>802003</v>
+      <c r="B232" s="1" t="s">
+        <v>715</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>245</v>
@@ -5097,8 +6544,8 @@
       </c>
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B233" s="1">
-        <v>802001</v>
+      <c r="B233" s="1" t="s">
+        <v>716</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>246</v>
@@ -5111,8 +6558,8 @@
       </c>
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B234" s="1">
-        <v>802004</v>
+      <c r="B234" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>247</v>
@@ -5125,8 +6572,8 @@
       </c>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B235" s="1">
-        <v>802002</v>
+      <c r="B235" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>248</v>
@@ -5139,8 +6586,8 @@
       </c>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B236" s="1">
-        <v>803004</v>
+      <c r="B236" s="1" t="s">
+        <v>719</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>249</v>
@@ -5153,8 +6600,8 @@
       </c>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B237" s="1">
-        <v>803002</v>
+      <c r="B237" s="1" t="s">
+        <v>720</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>250</v>
@@ -5167,8 +6614,8 @@
       </c>
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B238" s="1">
-        <v>803005</v>
+      <c r="B238" s="1" t="s">
+        <v>721</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>251</v>
@@ -5181,8 +6628,8 @@
       </c>
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B239" s="1">
-        <v>803003</v>
+      <c r="B239" s="1" t="s">
+        <v>722</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>252</v>
@@ -5195,8 +6642,8 @@
       </c>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B240" s="1">
-        <v>803001</v>
+      <c r="B240" s="1" t="s">
+        <v>723</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>253</v>
@@ -5209,8 +6656,8 @@
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B241" s="1">
-        <v>804001</v>
+      <c r="B241" s="1" t="s">
+        <v>724</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>254</v>
@@ -5223,8 +6670,8 @@
       </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B242" s="1">
-        <v>804002</v>
+      <c r="B242" s="1" t="s">
+        <v>725</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>255</v>
@@ -5237,8 +6684,8 @@
       </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B243" s="1">
-        <v>804003</v>
+      <c r="B243" s="1" t="s">
+        <v>726</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>256</v>
@@ -5251,8 +6698,8 @@
       </c>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B244" s="1">
-        <v>901005</v>
+      <c r="B244" s="1" t="s">
+        <v>727</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>257</v>
@@ -5265,8 +6712,8 @@
       </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B245" s="1">
-        <v>901003</v>
+      <c r="B245" s="1" t="s">
+        <v>728</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>258</v>
@@ -5279,8 +6726,8 @@
       </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B246" s="1">
-        <v>901001</v>
+      <c r="B246" s="1" t="s">
+        <v>729</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>259</v>
@@ -5293,8 +6740,8 @@
       </c>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B247" s="1">
-        <v>901006</v>
+      <c r="B247" s="1" t="s">
+        <v>730</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>260</v>
@@ -5307,8 +6754,8 @@
       </c>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B248" s="1">
-        <v>901004</v>
+      <c r="B248" s="1" t="s">
+        <v>731</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>261</v>
@@ -5321,8 +6768,8 @@
       </c>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B249" s="1">
-        <v>901002</v>
+      <c r="B249" s="1" t="s">
+        <v>732</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>262</v>
@@ -5335,8 +6782,8 @@
       </c>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B250" s="1">
-        <v>902001</v>
+      <c r="B250" s="1" t="s">
+        <v>733</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>263</v>
@@ -5349,8 +6796,8 @@
       </c>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B251" s="1">
-        <v>902002</v>
+      <c r="B251" s="1" t="s">
+        <v>734</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>264</v>
@@ -5363,8 +6810,8 @@
       </c>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B252" s="1">
-        <v>902003</v>
+      <c r="B252" s="1" t="s">
+        <v>735</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>265</v>
@@ -5377,8 +6824,8 @@
       </c>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B253" s="1">
-        <v>903005</v>
+      <c r="B253" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>266</v>
@@ -5391,8 +6838,8 @@
       </c>
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B254" s="1">
-        <v>903003</v>
+      <c r="B254" s="1" t="s">
+        <v>737</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>267</v>
@@ -5405,8 +6852,8 @@
       </c>
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B255" s="1">
-        <v>903001</v>
+      <c r="B255" s="1" t="s">
+        <v>738</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>268</v>
@@ -5419,8 +6866,8 @@
       </c>
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B256" s="1">
-        <v>903004</v>
+      <c r="B256" s="1" t="s">
+        <v>739</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>269</v>
@@ -5433,8 +6880,8 @@
       </c>
     </row>
     <row r="257" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B257" s="1">
-        <v>903002</v>
+      <c r="B257" s="1" t="s">
+        <v>740</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>270</v>
@@ -5447,8 +6894,8 @@
       </c>
     </row>
     <row r="258" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B258" s="1">
-        <v>904005</v>
+      <c r="B258" s="1" t="s">
+        <v>741</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>271</v>
@@ -5461,8 +6908,8 @@
       </c>
     </row>
     <row r="259" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B259" s="1">
-        <v>904003</v>
+      <c r="B259" s="1" t="s">
+        <v>742</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>272</v>
@@ -5475,8 +6922,8 @@
       </c>
     </row>
     <row r="260" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B260" s="1">
-        <v>904001</v>
+      <c r="B260" s="1" t="s">
+        <v>743</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>273</v>
@@ -5489,8 +6936,8 @@
       </c>
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B261" s="1">
-        <v>904004</v>
+      <c r="B261" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>274</v>
@@ -5503,8 +6950,8 @@
       </c>
     </row>
     <row r="262" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B262" s="1">
-        <v>904002</v>
+      <c r="B262" s="1" t="s">
+        <v>745</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>275</v>
@@ -5517,8 +6964,8 @@
       </c>
     </row>
     <row r="263" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B263" s="1">
-        <v>905004</v>
+      <c r="B263" s="1" t="s">
+        <v>746</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>276</v>
@@ -5531,8 +6978,8 @@
       </c>
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B264" s="1">
-        <v>905002</v>
+      <c r="B264" s="1" t="s">
+        <v>747</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>277</v>
@@ -5545,8 +6992,8 @@
       </c>
     </row>
     <row r="265" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B265" s="1">
-        <v>905003</v>
+      <c r="B265" s="1" t="s">
+        <v>748</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>277</v>
@@ -5559,8 +7006,8 @@
       </c>
     </row>
     <row r="266" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B266" s="1">
-        <v>905001</v>
+      <c r="B266" s="1" t="s">
+        <v>749</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>277</v>
@@ -5573,8 +7020,8 @@
       </c>
     </row>
     <row r="267" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B267" s="1">
-        <v>906005</v>
+      <c r="B267" s="1" t="s">
+        <v>750</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>278</v>
@@ -5587,8 +7034,8 @@
       </c>
     </row>
     <row r="268" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B268" s="1">
-        <v>906003</v>
+      <c r="B268" s="1" t="s">
+        <v>751</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>279</v>
@@ -5601,8 +7048,8 @@
       </c>
     </row>
     <row r="269" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B269" s="1">
-        <v>906001</v>
+      <c r="B269" s="1" t="s">
+        <v>752</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>280</v>
@@ -5615,8 +7062,8 @@
       </c>
     </row>
     <row r="270" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B270" s="1">
-        <v>906006</v>
+      <c r="B270" s="1" t="s">
+        <v>753</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>281</v>
@@ -5629,8 +7076,8 @@
       </c>
     </row>
     <row r="271" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B271" s="1">
-        <v>906004</v>
+      <c r="B271" s="1" t="s">
+        <v>754</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>282</v>
@@ -5643,8 +7090,8 @@
       </c>
     </row>
     <row r="272" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B272" s="1">
-        <v>906002</v>
+      <c r="B272" s="1" t="s">
+        <v>755</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>283</v>
@@ -5657,8 +7104,8 @@
       </c>
     </row>
     <row r="273" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B273" s="1">
-        <v>907001</v>
+      <c r="B273" s="1" t="s">
+        <v>756</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>284</v>
@@ -5671,8 +7118,8 @@
       </c>
     </row>
     <row r="274" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B274" s="1">
-        <v>907002</v>
+      <c r="B274" s="1" t="s">
+        <v>757</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>285</v>
@@ -5685,8 +7132,8 @@
       </c>
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B275" s="1">
-        <v>907003</v>
+      <c r="B275" s="1" t="s">
+        <v>758</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>286</v>
@@ -5699,8 +7146,8 @@
       </c>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B276" s="1">
-        <v>908001</v>
+      <c r="B276" s="1" t="s">
+        <v>759</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>287</v>
@@ -5713,8 +7160,8 @@
       </c>
     </row>
     <row r="277" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B277" s="1">
-        <v>908002</v>
+      <c r="B277" s="1" t="s">
+        <v>760</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>288</v>
@@ -5727,8 +7174,8 @@
       </c>
     </row>
     <row r="278" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B278" s="1">
-        <v>909003</v>
+      <c r="B278" s="1" t="s">
+        <v>761</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>289</v>
@@ -5741,8 +7188,8 @@
       </c>
     </row>
     <row r="279" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B279" s="1">
-        <v>909002</v>
+      <c r="B279" s="1" t="s">
+        <v>762</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>289</v>
@@ -5755,8 +7202,8 @@
       </c>
     </row>
     <row r="280" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B280" s="1">
-        <v>909001</v>
+      <c r="B280" s="1" t="s">
+        <v>763</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>289</v>
@@ -5769,8 +7216,8 @@
       </c>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B281" s="1">
-        <v>910001</v>
+      <c r="B281" s="1" t="s">
+        <v>764</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>290</v>
@@ -5783,8 +7230,8 @@
       </c>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B282" s="1">
-        <v>910005</v>
+      <c r="B282" s="1" t="s">
+        <v>765</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>291</v>
@@ -5797,8 +7244,8 @@
       </c>
     </row>
     <row r="283" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B283" s="1">
-        <v>910004</v>
+      <c r="B283" s="1" t="s">
+        <v>766</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>292</v>
@@ -5811,8 +7258,8 @@
       </c>
     </row>
     <row r="284" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B284" s="1">
-        <v>910009</v>
+      <c r="B284" s="1" t="s">
+        <v>767</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>293</v>
@@ -5825,8 +7272,8 @@
       </c>
     </row>
     <row r="285" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B285" s="1">
-        <v>910002</v>
+      <c r="B285" s="1" t="s">
+        <v>768</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>294</v>
@@ -5839,8 +7286,8 @@
       </c>
     </row>
     <row r="286" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B286" s="1">
-        <v>910110</v>
+      <c r="B286" s="1" t="s">
+        <v>769</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>295</v>
@@ -5853,8 +7300,8 @@
       </c>
     </row>
     <row r="287" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B287" s="1">
-        <v>910007</v>
+      <c r="B287" s="1" t="s">
+        <v>770</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>296</v>
@@ -5867,8 +7314,8 @@
       </c>
     </row>
     <row r="288" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B288" s="1">
-        <v>910010</v>
+      <c r="B288" s="1" t="s">
+        <v>771</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>297</v>
@@ -5881,8 +7328,8 @@
       </c>
     </row>
     <row r="289" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B289" s="1">
-        <v>910003</v>
+      <c r="B289" s="1" t="s">
+        <v>772</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>298</v>
@@ -5895,8 +7342,8 @@
       </c>
     </row>
     <row r="290" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B290" s="1">
-        <v>910006</v>
+      <c r="B290" s="1" t="s">
+        <v>773</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>299</v>
@@ -5909,8 +7356,8 @@
       </c>
     </row>
     <row r="291" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B291" s="1">
-        <v>1001005</v>
+      <c r="B291" s="1" t="s">
+        <v>774</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>300</v>
@@ -5923,8 +7370,8 @@
       </c>
     </row>
     <row r="292" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B292" s="1">
-        <v>1001003</v>
+      <c r="B292" s="1" t="s">
+        <v>775</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>301</v>
@@ -5937,8 +7384,8 @@
       </c>
     </row>
     <row r="293" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B293" s="1">
-        <v>1001001</v>
+      <c r="B293" s="1" t="s">
+        <v>776</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>302</v>
@@ -5951,8 +7398,8 @@
       </c>
     </row>
     <row r="294" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B294" s="1">
-        <v>1001008</v>
+      <c r="B294" s="1" t="s">
+        <v>777</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>303</v>
@@ -5965,8 +7412,8 @@
       </c>
     </row>
     <row r="295" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B295" s="1">
-        <v>1001006</v>
+      <c r="B295" s="1" t="s">
+        <v>778</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>304</v>
@@ -5979,8 +7426,8 @@
       </c>
     </row>
     <row r="296" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B296" s="1">
-        <v>1001004</v>
+      <c r="B296" s="1" t="s">
+        <v>779</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>305</v>
@@ -5993,8 +7440,8 @@
       </c>
     </row>
     <row r="297" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B297" s="1">
-        <v>1001002</v>
+      <c r="B297" s="1" t="s">
+        <v>780</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>306</v>
@@ -6007,8 +7454,8 @@
       </c>
     </row>
     <row r="298" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B298" s="1">
-        <v>1001007</v>
+      <c r="B298" s="1" t="s">
+        <v>781</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>307</v>
@@ -6021,8 +7468,8 @@
       </c>
     </row>
     <row r="299" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B299" s="1">
-        <v>1001009</v>
+      <c r="B299" s="1" t="s">
+        <v>782</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>308</v>
@@ -6035,8 +7482,8 @@
       </c>
     </row>
     <row r="300" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B300" s="1">
-        <v>1002004</v>
+      <c r="B300" s="1" t="s">
+        <v>783</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>309</v>
@@ -6049,8 +7496,8 @@
       </c>
     </row>
     <row r="301" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B301" s="1">
-        <v>1002002</v>
+      <c r="B301" s="1" t="s">
+        <v>784</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>310</v>
@@ -6063,8 +7510,8 @@
       </c>
     </row>
     <row r="302" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B302" s="1">
-        <v>1002003</v>
+      <c r="B302" s="1" t="s">
+        <v>785</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>311</v>
@@ -6077,8 +7524,8 @@
       </c>
     </row>
     <row r="303" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B303" s="1">
-        <v>1002001</v>
+      <c r="B303" s="1" t="s">
+        <v>786</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>312</v>
@@ -6091,8 +7538,8 @@
       </c>
     </row>
     <row r="304" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B304" s="1">
-        <v>1003003</v>
+      <c r="B304" s="1" t="s">
+        <v>787</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>313</v>
@@ -6105,8 +7552,8 @@
       </c>
     </row>
     <row r="305" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B305" s="1">
-        <v>1003001</v>
+      <c r="B305" s="1" t="s">
+        <v>788</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>314</v>
@@ -6119,8 +7566,8 @@
       </c>
     </row>
     <row r="306" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B306" s="1">
-        <v>1003002</v>
+      <c r="B306" s="1" t="s">
+        <v>789</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>315</v>
@@ -6133,8 +7580,8 @@
       </c>
     </row>
     <row r="307" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B307" s="1">
-        <v>1004004</v>
+      <c r="B307" s="1" t="s">
+        <v>790</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>316</v>
@@ -6147,8 +7594,8 @@
       </c>
     </row>
     <row r="308" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B308" s="1">
-        <v>1004002</v>
+      <c r="B308" s="1" t="s">
+        <v>791</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>317</v>
@@ -6161,8 +7608,8 @@
       </c>
     </row>
     <row r="309" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B309" s="1">
-        <v>1004003</v>
+      <c r="B309" s="1" t="s">
+        <v>792</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>318</v>
@@ -6175,8 +7622,8 @@
       </c>
     </row>
     <row r="310" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B310" s="1">
-        <v>1004001</v>
+      <c r="B310" s="1" t="s">
+        <v>793</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>319</v>
@@ -6189,8 +7636,8 @@
       </c>
     </row>
     <row r="311" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B311" s="1">
-        <v>1005001</v>
+      <c r="B311" s="1" t="s">
+        <v>794</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>320</v>
@@ -6203,8 +7650,8 @@
       </c>
     </row>
     <row r="312" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B312" s="1">
-        <v>1006001</v>
+      <c r="B312" s="1" t="s">
+        <v>795</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>321</v>
@@ -6217,8 +7664,8 @@
       </c>
     </row>
     <row r="313" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B313" s="1">
-        <v>1101001</v>
+      <c r="B313" s="1" t="s">
+        <v>796</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>322</v>
@@ -6231,8 +7678,8 @@
       </c>
     </row>
     <row r="314" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B314" s="1">
-        <v>1101006</v>
+      <c r="B314" s="1" t="s">
+        <v>797</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>323</v>
@@ -6245,8 +7692,8 @@
       </c>
     </row>
     <row r="315" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B315" s="1">
-        <v>1101004</v>
+      <c r="B315" s="1" t="s">
+        <v>798</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>324</v>
@@ -6259,8 +7706,8 @@
       </c>
     </row>
     <row r="316" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B316" s="1">
-        <v>1101002</v>
+      <c r="B316" s="1" t="s">
+        <v>799</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>325</v>
@@ -6273,8 +7720,8 @@
       </c>
     </row>
     <row r="317" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B317" s="1">
-        <v>1101007</v>
+      <c r="B317" s="1" t="s">
+        <v>800</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>326</v>
@@ -6287,8 +7734,8 @@
       </c>
     </row>
     <row r="318" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B318" s="1">
-        <v>1101005</v>
+      <c r="B318" s="1" t="s">
+        <v>801</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>327</v>
@@ -6301,8 +7748,8 @@
       </c>
     </row>
     <row r="319" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B319" s="1">
-        <v>1101003</v>
+      <c r="B319" s="1" t="s">
+        <v>802</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>328</v>
@@ -6315,8 +7762,8 @@
       </c>
     </row>
     <row r="320" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B320" s="1">
-        <v>1102001</v>
+      <c r="B320" s="1" t="s">
+        <v>803</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>329</v>
@@ -6329,8 +7776,8 @@
       </c>
     </row>
     <row r="321" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B321" s="1">
-        <v>1102006</v>
+      <c r="B321" s="1" t="s">
+        <v>804</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>330</v>
@@ -6343,8 +7790,8 @@
       </c>
     </row>
     <row r="322" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B322" s="1">
-        <v>1102004</v>
+      <c r="B322" s="1" t="s">
+        <v>805</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>331</v>
@@ -6357,8 +7804,8 @@
       </c>
     </row>
     <row r="323" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B323" s="1">
-        <v>1102002</v>
+      <c r="B323" s="1" t="s">
+        <v>806</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>332</v>
@@ -6371,8 +7818,8 @@
       </c>
     </row>
     <row r="324" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B324" s="1">
-        <v>1102007</v>
+      <c r="B324" s="1" t="s">
+        <v>807</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>333</v>
@@ -6385,8 +7832,8 @@
       </c>
     </row>
     <row r="325" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B325" s="1">
-        <v>1102005</v>
+      <c r="B325" s="1" t="s">
+        <v>808</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>334</v>
@@ -6399,8 +7846,8 @@
       </c>
     </row>
     <row r="326" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B326" s="1">
-        <v>1102003</v>
+      <c r="B326" s="1" t="s">
+        <v>809</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>335</v>
@@ -6413,8 +7860,8 @@
       </c>
     </row>
     <row r="327" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B327" s="1">
-        <v>1103003</v>
+      <c r="B327" s="1" t="s">
+        <v>810</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>336</v>
@@ -6427,8 +7874,8 @@
       </c>
     </row>
     <row r="328" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B328" s="1">
-        <v>1103010</v>
+      <c r="B328" s="1" t="s">
+        <v>811</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>337</v>
@@ -6441,8 +7888,8 @@
       </c>
     </row>
     <row r="329" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B329" s="1">
-        <v>1103001</v>
+      <c r="B329" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>338</v>
@@ -6455,8 +7902,8 @@
       </c>
     </row>
     <row r="330" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B330" s="1">
-        <v>1103008</v>
+      <c r="B330" s="1" t="s">
+        <v>813</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>339</v>
@@ -6469,8 +7916,8 @@
       </c>
     </row>
     <row r="331" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B331" s="1">
-        <v>1103006</v>
+      <c r="B331" s="1" t="s">
+        <v>814</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>340</v>
@@ -6483,8 +7930,8 @@
       </c>
     </row>
     <row r="332" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B332" s="1">
-        <v>1103004</v>
+      <c r="B332" s="1" t="s">
+        <v>815</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>341</v>
@@ -6497,8 +7944,8 @@
       </c>
     </row>
     <row r="333" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B333" s="1">
-        <v>1103011</v>
+      <c r="B333" s="1" t="s">
+        <v>816</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>342</v>
@@ -6511,8 +7958,8 @@
       </c>
     </row>
     <row r="334" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B334" s="1">
-        <v>1103002</v>
+      <c r="B334" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>343</v>
@@ -6525,8 +7972,8 @@
       </c>
     </row>
     <row r="335" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B335" s="1">
-        <v>1103009</v>
+      <c r="B335" s="1" t="s">
+        <v>818</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>176</v>
@@ -6539,8 +7986,8 @@
       </c>
     </row>
     <row r="336" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B336" s="1">
-        <v>1103007</v>
+      <c r="B336" s="1" t="s">
+        <v>819</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>344</v>
@@ -6553,8 +8000,8 @@
       </c>
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B337" s="1">
-        <v>1103005</v>
+      <c r="B337" s="1" t="s">
+        <v>820</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>345</v>
@@ -6567,8 +8014,8 @@
       </c>
     </row>
     <row r="338" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B338" s="1">
-        <v>1104008</v>
+      <c r="B338" s="1" t="s">
+        <v>821</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>346</v>
@@ -6581,8 +8028,8 @@
       </c>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B339" s="1">
-        <v>1104006</v>
+      <c r="B339" s="1" t="s">
+        <v>822</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>347</v>
@@ -6595,8 +8042,8 @@
       </c>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B340" s="1">
-        <v>1104004</v>
+      <c r="B340" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>348</v>
@@ -6609,8 +8056,8 @@
       </c>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B341" s="1">
-        <v>1104002</v>
+      <c r="B341" s="1" t="s">
+        <v>824</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>349</v>
@@ -6623,8 +8070,8 @@
       </c>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B342" s="1">
-        <v>1104007</v>
+      <c r="B342" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>350</v>
@@ -6637,8 +8084,8 @@
       </c>
     </row>
     <row r="343" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B343" s="1">
-        <v>1104005</v>
+      <c r="B343" s="1" t="s">
+        <v>826</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>351</v>
@@ -6651,8 +8098,8 @@
       </c>
     </row>
     <row r="344" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B344" s="1">
-        <v>1104003</v>
+      <c r="B344" s="1" t="s">
+        <v>827</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>352</v>
@@ -6665,8 +8112,8 @@
       </c>
     </row>
     <row r="345" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B345" s="1">
-        <v>1104001</v>
+      <c r="B345" s="1" t="s">
+        <v>828</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>353</v>
@@ -6679,8 +8126,8 @@
       </c>
     </row>
     <row r="346" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B346" s="1">
-        <v>1105007</v>
+      <c r="B346" s="1" t="s">
+        <v>829</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>354</v>
@@ -6693,8 +8140,8 @@
       </c>
     </row>
     <row r="347" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B347" s="1">
-        <v>1105005</v>
+      <c r="B347" s="1" t="s">
+        <v>830</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>355</v>
@@ -6707,8 +8154,8 @@
       </c>
     </row>
     <row r="348" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B348" s="1">
-        <v>1105003</v>
+      <c r="B348" s="1" t="s">
+        <v>831</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>356</v>
@@ -6721,8 +8168,8 @@
       </c>
     </row>
     <row r="349" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B349" s="1">
-        <v>1105001</v>
+      <c r="B349" s="1" t="s">
+        <v>832</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>357</v>
@@ -6735,8 +8182,8 @@
       </c>
     </row>
     <row r="350" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B350" s="1">
-        <v>1105008</v>
+      <c r="B350" s="1" t="s">
+        <v>833</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>358</v>
@@ -6749,8 +8196,8 @@
       </c>
     </row>
     <row r="351" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B351" s="1">
-        <v>1105006</v>
+      <c r="B351" s="1" t="s">
+        <v>834</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>359</v>
@@ -6763,8 +8210,8 @@
       </c>
     </row>
     <row r="352" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B352" s="1">
-        <v>1105004</v>
+      <c r="B352" s="1" t="s">
+        <v>835</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>360</v>
@@ -6777,8 +8224,8 @@
       </c>
     </row>
     <row r="353" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B353" s="1">
-        <v>1105002</v>
+      <c r="B353" s="1" t="s">
+        <v>836</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>361</v>
@@ -6791,8 +8238,8 @@
       </c>
     </row>
     <row r="354" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B354" s="1">
-        <v>1105009</v>
+      <c r="B354" s="1" t="s">
+        <v>837</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>362</v>
@@ -6805,8 +8252,8 @@
       </c>
     </row>
     <row r="355" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B355" s="1">
-        <v>1106006</v>
+      <c r="B355" s="1" t="s">
+        <v>838</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>358</v>
@@ -6819,8 +8266,8 @@
       </c>
     </row>
     <row r="356" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B356" s="1">
-        <v>1106004</v>
+      <c r="B356" s="1" t="s">
+        <v>839</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>363</v>
@@ -6833,8 +8280,8 @@
       </c>
     </row>
     <row r="357" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B357" s="1">
-        <v>1106002</v>
+      <c r="B357" s="1" t="s">
+        <v>840</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>364</v>
@@ -6847,8 +8294,8 @@
       </c>
     </row>
     <row r="358" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B358" s="1">
-        <v>1106005</v>
+      <c r="B358" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>365</v>
@@ -6861,8 +8308,8 @@
       </c>
     </row>
     <row r="359" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B359" s="1">
-        <v>1106003</v>
+      <c r="B359" s="1" t="s">
+        <v>842</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>366</v>
@@ -6875,8 +8322,8 @@
       </c>
     </row>
     <row r="360" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B360" s="1">
-        <v>1106001</v>
+      <c r="B360" s="1" t="s">
+        <v>843</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>367</v>
@@ -6889,8 +8336,8 @@
       </c>
     </row>
     <row r="361" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B361" s="1">
-        <v>1107002</v>
+      <c r="B361" s="1" t="s">
+        <v>844</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>368</v>
@@ -6903,8 +8350,8 @@
       </c>
     </row>
     <row r="362" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B362" s="1">
-        <v>1107003</v>
+      <c r="B362" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>369</v>
@@ -6917,8 +8364,8 @@
       </c>
     </row>
     <row r="363" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B363" s="1">
-        <v>1107001</v>
+      <c r="B363" s="1" t="s">
+        <v>846</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>370</v>
@@ -6931,8 +8378,8 @@
       </c>
     </row>
     <row r="364" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B364" s="1">
-        <v>1201001</v>
+      <c r="B364" s="1" t="s">
+        <v>847</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>371</v>
@@ -6945,8 +8392,8 @@
       </c>
     </row>
     <row r="365" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B365" s="1">
-        <v>1202004</v>
+      <c r="B365" s="1" t="s">
+        <v>848</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>372</v>
@@ -6959,8 +8406,8 @@
       </c>
     </row>
     <row r="366" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B366" s="1">
-        <v>1202002</v>
+      <c r="B366" s="1" t="s">
+        <v>849</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>373</v>
@@ -6973,8 +8420,8 @@
       </c>
     </row>
     <row r="367" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B367" s="1">
-        <v>1202005</v>
+      <c r="B367" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>372</v>
@@ -6987,8 +8434,8 @@
       </c>
     </row>
     <row r="368" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B368" s="1">
-        <v>1202003</v>
+      <c r="B368" s="1" t="s">
+        <v>851</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>374</v>
@@ -7001,8 +8448,8 @@
       </c>
     </row>
     <row r="369" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B369" s="1">
-        <v>1202001</v>
+      <c r="B369" s="1" t="s">
+        <v>852</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>375</v>
@@ -7015,8 +8462,8 @@
       </c>
     </row>
     <row r="370" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B370" s="1">
-        <v>1203002</v>
+      <c r="B370" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>376</v>
@@ -7029,8 +8476,8 @@
       </c>
     </row>
     <row r="371" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B371" s="1">
-        <v>1203009</v>
+      <c r="B371" s="1" t="s">
+        <v>854</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>377</v>
@@ -7043,8 +8490,8 @@
       </c>
     </row>
     <row r="372" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B372" s="1">
-        <v>1203005</v>
+      <c r="B372" s="1" t="s">
+        <v>855</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>378</v>
@@ -7057,8 +8504,8 @@
       </c>
     </row>
     <row r="373" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B373" s="1">
-        <v>1203003</v>
+      <c r="B373" s="1" t="s">
+        <v>856</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>379</v>
@@ -7071,8 +8518,8 @@
       </c>
     </row>
     <row r="374" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B374" s="1">
-        <v>1203007</v>
+      <c r="B374" s="1" t="s">
+        <v>857</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>380</v>
@@ -7085,8 +8532,8 @@
       </c>
     </row>
     <row r="375" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B375" s="1">
-        <v>1203004</v>
+      <c r="B375" s="1" t="s">
+        <v>858</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>381</v>
@@ -7099,8 +8546,8 @@
       </c>
     </row>
     <row r="376" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B376" s="1">
-        <v>1204006</v>
+      <c r="B376" s="1" t="s">
+        <v>859</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>382</v>
@@ -7113,8 +8560,8 @@
       </c>
     </row>
     <row r="377" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B377" s="1">
-        <v>1204003</v>
+      <c r="B377" s="1" t="s">
+        <v>860</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>383</v>
@@ -7127,8 +8574,8 @@
       </c>
     </row>
     <row r="378" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B378" s="1">
-        <v>1204004</v>
+      <c r="B378" s="1" t="s">
+        <v>861</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>384</v>
@@ -7141,8 +8588,8 @@
       </c>
     </row>
     <row r="379" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B379" s="1">
-        <v>1204001</v>
+      <c r="B379" s="1" t="s">
+        <v>862</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>385</v>
@@ -7155,8 +8602,8 @@
       </c>
     </row>
     <row r="380" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B380" s="1">
-        <v>1204007</v>
+      <c r="B380" s="1" t="s">
+        <v>863</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>386</v>
@@ -7169,8 +8616,8 @@
       </c>
     </row>
     <row r="381" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B381" s="1">
-        <v>1205010</v>
+      <c r="B381" s="1" t="s">
+        <v>864</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>387</v>
@@ -7183,8 +8630,8 @@
       </c>
     </row>
     <row r="382" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B382" s="1">
-        <v>1205007</v>
+      <c r="B382" s="1" t="s">
+        <v>865</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>388</v>
@@ -7197,8 +8644,8 @@
       </c>
     </row>
     <row r="383" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B383" s="1">
-        <v>1205005</v>
+      <c r="B383" s="1" t="s">
+        <v>866</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>389</v>
@@ -7211,8 +8658,8 @@
       </c>
     </row>
     <row r="384" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B384" s="1">
-        <v>1205003</v>
+      <c r="B384" s="1" t="s">
+        <v>867</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>390</v>
@@ -7225,8 +8672,8 @@
       </c>
     </row>
     <row r="385" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B385" s="1">
-        <v>1205001</v>
+      <c r="B385" s="1" t="s">
+        <v>868</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>391</v>
@@ -7239,8 +8686,8 @@
       </c>
     </row>
     <row r="386" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B386" s="1">
-        <v>1205008</v>
+      <c r="B386" s="1" t="s">
+        <v>869</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>392</v>
@@ -7253,8 +8700,8 @@
       </c>
     </row>
     <row r="387" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B387" s="1">
-        <v>1205006</v>
+      <c r="B387" s="1" t="s">
+        <v>870</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>393</v>
@@ -7267,8 +8714,8 @@
       </c>
     </row>
     <row r="388" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B388" s="1">
-        <v>1205004</v>
+      <c r="B388" s="1" t="s">
+        <v>871</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>394</v>
@@ -7281,8 +8728,8 @@
       </c>
     </row>
     <row r="389" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B389" s="1">
-        <v>1205002</v>
+      <c r="B389" s="1" t="s">
+        <v>872</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>395</v>
@@ -7295,8 +8742,8 @@
       </c>
     </row>
     <row r="390" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B390" s="1">
-        <v>1205009</v>
+      <c r="B390" s="1" t="s">
+        <v>873</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>396</v>
@@ -7309,8 +8756,8 @@
       </c>
     </row>
     <row r="391" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B391" s="1">
-        <v>1206001</v>
+      <c r="B391" s="1" t="s">
+        <v>874</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>397</v>
@@ -7323,8 +8770,8 @@
       </c>
     </row>
     <row r="392" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B392" s="1">
-        <v>1207004</v>
+      <c r="B392" s="1" t="s">
+        <v>875</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>398</v>
@@ -7337,8 +8784,8 @@
       </c>
     </row>
     <row r="393" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B393" s="1">
-        <v>1207001</v>
+      <c r="B393" s="1" t="s">
+        <v>876</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>399</v>
@@ -7351,8 +8798,8 @@
       </c>
     </row>
     <row r="394" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B394" s="1">
-        <v>1207003</v>
+      <c r="B394" s="1" t="s">
+        <v>877</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>400</v>
@@ -7365,8 +8812,8 @@
       </c>
     </row>
     <row r="395" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B395" s="1">
-        <v>1207002</v>
+      <c r="B395" s="1" t="s">
+        <v>878</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>401</v>
@@ -7379,8 +8826,8 @@
       </c>
     </row>
     <row r="396" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B396" s="1">
-        <v>1301008</v>
+      <c r="B396" s="1" t="s">
+        <v>879</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>402</v>
@@ -7393,8 +8840,8 @@
       </c>
     </row>
     <row r="397" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B397" s="1">
-        <v>1301005</v>
+      <c r="B397" s="1" t="s">
+        <v>880</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>403</v>
@@ -7407,8 +8854,8 @@
       </c>
     </row>
     <row r="398" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B398" s="1">
-        <v>1301001</v>
+      <c r="B398" s="1" t="s">
+        <v>881</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>404</v>
@@ -7421,8 +8868,8 @@
       </c>
     </row>
     <row r="399" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B399" s="1">
-        <v>1301006</v>
+      <c r="B399" s="1" t="s">
+        <v>882</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>169</v>
@@ -7435,8 +8882,8 @@
       </c>
     </row>
     <row r="400" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B400" s="1">
-        <v>1301003</v>
+      <c r="B400" s="1" t="s">
+        <v>883</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>339</v>
@@ -7449,8 +8896,8 @@
       </c>
     </row>
     <row r="401" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B401" s="1">
-        <v>1301011</v>
+      <c r="B401" s="1" t="s">
+        <v>884</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>405</v>
@@ -7463,8 +8910,8 @@
       </c>
     </row>
     <row r="402" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B402" s="1">
-        <v>1301009</v>
+      <c r="B402" s="1" t="s">
+        <v>885</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>406</v>
@@ -7477,8 +8924,8 @@
       </c>
     </row>
     <row r="403" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B403" s="1">
-        <v>1301007</v>
+      <c r="B403" s="1" t="s">
+        <v>886</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>407</v>
@@ -7491,8 +8938,8 @@
       </c>
     </row>
     <row r="404" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B404" s="1">
-        <v>1301004</v>
+      <c r="B404" s="1" t="s">
+        <v>887</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>408</v>
@@ -7505,8 +8952,8 @@
       </c>
     </row>
     <row r="405" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B405" s="1">
-        <v>1301012</v>
+      <c r="B405" s="1" t="s">
+        <v>888</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>409</v>
@@ -7519,8 +8966,8 @@
       </c>
     </row>
     <row r="406" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B406" s="1">
-        <v>1301002</v>
+      <c r="B406" s="1" t="s">
+        <v>889</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>160</v>
@@ -7533,8 +8980,8 @@
       </c>
     </row>
     <row r="407" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B407" s="1">
-        <v>1301010</v>
+      <c r="B407" s="1" t="s">
+        <v>890</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>410</v>
@@ -7547,8 +8994,8 @@
       </c>
     </row>
     <row r="408" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B408" s="1">
-        <v>1306002</v>
+      <c r="B408" s="1" t="s">
+        <v>891</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>411</v>
@@ -7561,8 +9008,8 @@
       </c>
     </row>
     <row r="409" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B409" s="1">
-        <v>1306005</v>
+      <c r="B409" s="1" t="s">
+        <v>892</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>412</v>
@@ -7575,8 +9022,8 @@
       </c>
     </row>
     <row r="410" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B410" s="1">
-        <v>1307004</v>
+      <c r="B410" s="1" t="s">
+        <v>893</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>413</v>
@@ -7589,8 +9036,8 @@
       </c>
     </row>
     <row r="411" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B411" s="1">
-        <v>1307066</v>
+      <c r="B411" s="1" t="s">
+        <v>894</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>414</v>
@@ -7603,8 +9050,8 @@
       </c>
     </row>
     <row r="412" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B412" s="1">
-        <v>1307002</v>
+      <c r="B412" s="1" t="s">
+        <v>895</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>415</v>
@@ -7617,8 +9064,8 @@
       </c>
     </row>
     <row r="413" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B413" s="1">
-        <v>1307006</v>
+      <c r="B413" s="1" t="s">
+        <v>896</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>416</v>
@@ -7631,8 +9078,8 @@
       </c>
     </row>
     <row r="414" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B414" s="1">
-        <v>1307008</v>
+      <c r="B414" s="1" t="s">
+        <v>897</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>417</v>
@@ -7645,8 +9092,8 @@
       </c>
     </row>
     <row r="415" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B415" s="1">
-        <v>1307005</v>
+      <c r="B415" s="1" t="s">
+        <v>898</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>418</v>
@@ -7659,8 +9106,8 @@
       </c>
     </row>
     <row r="416" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B416" s="1">
-        <v>1307077</v>
+      <c r="B416" s="1" t="s">
+        <v>899</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>419</v>
@@ -7673,8 +9120,8 @@
       </c>
     </row>
     <row r="417" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B417" s="1">
-        <v>1307003</v>
+      <c r="B417" s="1" t="s">
+        <v>900</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>420</v>
@@ -7687,8 +9134,8 @@
       </c>
     </row>
     <row r="418" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B418" s="1">
-        <v>1307012</v>
+      <c r="B418" s="1" t="s">
+        <v>901</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>421</v>
@@ -7701,8 +9148,8 @@
       </c>
     </row>
     <row r="419" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B419" s="1">
-        <v>1307011</v>
+      <c r="B419" s="1" t="s">
+        <v>902</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>422</v>
@@ -7715,8 +9162,8 @@
       </c>
     </row>
     <row r="420" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B420" s="1">
-        <v>1307001</v>
+      <c r="B420" s="1" t="s">
+        <v>903</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>423</v>
@@ -7729,8 +9176,8 @@
       </c>
     </row>
     <row r="421" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B421" s="1">
-        <v>1307055</v>
+      <c r="B421" s="1" t="s">
+        <v>904</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>424</v>
@@ -7743,8 +9190,8 @@
       </c>
     </row>
     <row r="422" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B422" s="1">
-        <v>1307010</v>
+      <c r="B422" s="1" t="s">
+        <v>905</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>425</v>
@@ -7757,8 +9204,8 @@
       </c>
     </row>
     <row r="423" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B423" s="1">
-        <v>1307007</v>
+      <c r="B423" s="1" t="s">
+        <v>906</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>426</v>
@@ -7771,8 +9218,8 @@
       </c>
     </row>
     <row r="424" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B424" s="1">
-        <v>1401002</v>
+      <c r="B424" s="1" t="s">
+        <v>907</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>427</v>
@@ -7785,8 +9232,8 @@
       </c>
     </row>
     <row r="425" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B425" s="1">
-        <v>1401001</v>
+      <c r="B425" s="1" t="s">
+        <v>908</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>428</v>
@@ -7799,8 +9246,8 @@
       </c>
     </row>
     <row r="426" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B426" s="1">
-        <v>1401003</v>
+      <c r="B426" s="1" t="s">
+        <v>909</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>429</v>
@@ -7813,8 +9260,8 @@
       </c>
     </row>
     <row r="427" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B427" s="1">
-        <v>1402001</v>
+      <c r="B427" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>430</v>
@@ -7827,8 +9274,8 @@
       </c>
     </row>
     <row r="428" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B428" s="1">
-        <v>1402002</v>
+      <c r="B428" s="1" t="s">
+        <v>911</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>431</v>
@@ -7841,8 +9288,8 @@
       </c>
     </row>
     <row r="429" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B429" s="1">
-        <v>1403001</v>
+      <c r="B429" s="1" t="s">
+        <v>912</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>432</v>
@@ -7855,8 +9302,8 @@
       </c>
     </row>
     <row r="430" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B430" s="1">
-        <v>1403003</v>
+      <c r="B430" s="1" t="s">
+        <v>913</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>433</v>
@@ -7869,8 +9316,8 @@
       </c>
     </row>
     <row r="431" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B431" s="1">
-        <v>1403002</v>
+      <c r="B431" s="1" t="s">
+        <v>914</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>434</v>
@@ -7883,8 +9330,8 @@
       </c>
     </row>
     <row r="432" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B432" s="1">
-        <v>1404002</v>
+      <c r="B432" s="1" t="s">
+        <v>915</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>435</v>
@@ -7897,8 +9344,8 @@
       </c>
     </row>
     <row r="433" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B433" s="1">
-        <v>1404003</v>
+      <c r="B433" s="1" t="s">
+        <v>916</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>436</v>
@@ -7911,8 +9358,8 @@
       </c>
     </row>
     <row r="434" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B434" s="1">
-        <v>1404001</v>
+      <c r="B434" s="1" t="s">
+        <v>917</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>437</v>
@@ -7925,8 +9372,8 @@
       </c>
     </row>
     <row r="435" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B435" s="1">
-        <v>1405003</v>
+      <c r="B435" s="1" t="s">
+        <v>918</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>438</v>
@@ -7939,8 +9386,8 @@
       </c>
     </row>
     <row r="436" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B436" s="1">
-        <v>1405002</v>
+      <c r="B436" s="1" t="s">
+        <v>919</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>439</v>
@@ -7953,8 +9400,8 @@
       </c>
     </row>
     <row r="437" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B437" s="1">
-        <v>1405001</v>
+      <c r="B437" s="1" t="s">
+        <v>920</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>440</v>
@@ -7967,8 +9414,8 @@
       </c>
     </row>
     <row r="438" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B438" s="1">
-        <v>1406001</v>
+      <c r="B438" s="1" t="s">
+        <v>921</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>441</v>
@@ -7981,8 +9428,8 @@
       </c>
     </row>
     <row r="439" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B439" s="1">
-        <v>3102008</v>
+      <c r="B439" s="1" t="s">
+        <v>922</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>442</v>
@@ -7995,8 +9442,8 @@
       </c>
     </row>
     <row r="440" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B440" s="1">
-        <v>3102012</v>
+      <c r="B440" s="1" t="s">
+        <v>923</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>443</v>
@@ -8009,8 +9456,8 @@
       </c>
     </row>
     <row r="441" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B441" s="1">
-        <v>3102005</v>
+      <c r="B441" s="1" t="s">
+        <v>924</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>444</v>
@@ -8023,8 +9470,8 @@
       </c>
     </row>
     <row r="442" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B442" s="1">
-        <v>3102003</v>
+      <c r="B442" s="1" t="s">
+        <v>925</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>445</v>
@@ -8037,8 +9484,8 @@
       </c>
     </row>
     <row r="443" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B443" s="1">
-        <v>3102001</v>
+      <c r="B443" s="1" t="s">
+        <v>926</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>446</v>
@@ -8051,8 +9498,8 @@
       </c>
     </row>
     <row r="444" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B444" s="1">
-        <v>3102014</v>
+      <c r="B444" s="1" t="s">
+        <v>927</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>447</v>
@@ -8065,8 +9512,8 @@
       </c>
     </row>
     <row r="445" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B445" s="1">
-        <v>3102007</v>
+      <c r="B445" s="1" t="s">
+        <v>928</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>448</v>
@@ -8079,8 +9526,8 @@
       </c>
     </row>
     <row r="446" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B446" s="1">
-        <v>3102004</v>
+      <c r="B446" s="1" t="s">
+        <v>929</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>449</v>
@@ -8093,8 +9540,8 @@
       </c>
     </row>
     <row r="447" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B447" s="1">
-        <v>3102002</v>
+      <c r="B447" s="1" t="s">
+        <v>930</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>450</v>
@@ -8107,8 +9554,8 @@
       </c>
     </row>
     <row r="448" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B448" s="1">
-        <v>3103007</v>
+      <c r="B448" s="1" t="s">
+        <v>931</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>451</v>
@@ -8121,8 +9568,8 @@
       </c>
     </row>
     <row r="449" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B449" s="1">
-        <v>3103005</v>
+      <c r="B449" s="1" t="s">
+        <v>932</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>452</v>
@@ -8135,8 +9582,8 @@
       </c>
     </row>
     <row r="450" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B450" s="1">
-        <v>3103012</v>
+      <c r="B450" s="1" t="s">
+        <v>933</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>453</v>
@@ -8149,8 +9596,8 @@
       </c>
     </row>
     <row r="451" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B451" s="1">
-        <v>3103003</v>
+      <c r="B451" s="1" t="s">
+        <v>934</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>454</v>
@@ -8163,8 +9610,8 @@
       </c>
     </row>
     <row r="452" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B452" s="1">
-        <v>3103010</v>
+      <c r="B452" s="1" t="s">
+        <v>935</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>455</v>
@@ -8177,8 +9624,8 @@
       </c>
     </row>
     <row r="453" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B453" s="1">
-        <v>3103001</v>
+      <c r="B453" s="1" t="s">
+        <v>936</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>456</v>
@@ -8191,8 +9638,8 @@
       </c>
     </row>
     <row r="454" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B454" s="1">
-        <v>3103008</v>
+      <c r="B454" s="1" t="s">
+        <v>937</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>457</v>
@@ -8205,8 +9652,8 @@
       </c>
     </row>
     <row r="455" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B455" s="1">
-        <v>3103006</v>
+      <c r="B455" s="1" t="s">
+        <v>938</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>458</v>
@@ -8219,8 +9666,8 @@
       </c>
     </row>
     <row r="456" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B456" s="1">
-        <v>3103004</v>
+      <c r="B456" s="1" t="s">
+        <v>939</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>459</v>
@@ -8233,8 +9680,8 @@
       </c>
     </row>
     <row r="457" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B457" s="1">
-        <v>3103011</v>
+      <c r="B457" s="1" t="s">
+        <v>940</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>460</v>
@@ -8247,8 +9694,8 @@
       </c>
     </row>
     <row r="458" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B458" s="1">
-        <v>3103002</v>
+      <c r="B458" s="1" t="s">
+        <v>941</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>461</v>
@@ -8261,8 +9708,8 @@
       </c>
     </row>
     <row r="459" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B459" s="1">
-        <v>3103009</v>
+      <c r="B459" s="1" t="s">
+        <v>942</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>462</v>
@@ -8275,8 +9722,8 @@
       </c>
     </row>
     <row r="460" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B460" s="1">
-        <v>3104011</v>
+      <c r="B460" s="1" t="s">
+        <v>943</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>463</v>
@@ -8289,8 +9736,8 @@
       </c>
     </row>
     <row r="461" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B461" s="1">
-        <v>3104002</v>
+      <c r="B461" s="1" t="s">
+        <v>944</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>464</v>
@@ -8303,8 +9750,8 @@
       </c>
     </row>
     <row r="462" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B462" s="1">
-        <v>3104009</v>
+      <c r="B462" s="1" t="s">
+        <v>945</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>465</v>
@@ -8317,8 +9764,8 @@
       </c>
     </row>
     <row r="463" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B463" s="1">
-        <v>3104007</v>
+      <c r="B463" s="1" t="s">
+        <v>946</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>466</v>
@@ -8331,8 +9778,8 @@
       </c>
     </row>
     <row r="464" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B464" s="1">
-        <v>3104014</v>
+      <c r="B464" s="1" t="s">
+        <v>947</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>467</v>
@@ -8345,8 +9792,8 @@
       </c>
     </row>
     <row r="465" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B465" s="1">
-        <v>3104005</v>
+      <c r="B465" s="1" t="s">
+        <v>948</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>468</v>
@@ -8359,8 +9806,8 @@
       </c>
     </row>
     <row r="466" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B466" s="1">
-        <v>3104012</v>
+      <c r="B466" s="1" t="s">
+        <v>949</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>469</v>
@@ -8373,8 +9820,8 @@
       </c>
     </row>
     <row r="467" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B467" s="1">
-        <v>3104003</v>
+      <c r="B467" s="1" t="s">
+        <v>950</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>470</v>
@@ -8387,8 +9834,8 @@
       </c>
     </row>
     <row r="468" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B468" s="1">
-        <v>3104010</v>
+      <c r="B468" s="1" t="s">
+        <v>951</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>471</v>
@@ -8401,8 +9848,8 @@
       </c>
     </row>
     <row r="469" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B469" s="1">
-        <v>3104001</v>
+      <c r="B469" s="1" t="s">
+        <v>952</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>472</v>
@@ -8415,8 +9862,8 @@
       </c>
     </row>
     <row r="470" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B470" s="1">
-        <v>3104008</v>
+      <c r="B470" s="1" t="s">
+        <v>953</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>473</v>
@@ -8429,8 +9876,8 @@
       </c>
     </row>
     <row r="471" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B471" s="1">
-        <v>3104016</v>
+      <c r="B471" s="1" t="s">
+        <v>954</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>474</v>
@@ -8443,8 +9890,8 @@
       </c>
     </row>
     <row r="472" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B472" s="1">
-        <v>3104015</v>
+      <c r="B472" s="1" t="s">
+        <v>955</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>475</v>
@@ -8457,8 +9904,8 @@
       </c>
     </row>
     <row r="473" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B473" s="1">
-        <v>3104006</v>
+      <c r="B473" s="1" t="s">
+        <v>956</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>476</v>
@@ -8471,8 +9918,8 @@
       </c>
     </row>
     <row r="474" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B474" s="1">
-        <v>3104017</v>
+      <c r="B474" s="1" t="s">
+        <v>957</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>477</v>
@@ -8485,8 +9932,8 @@
       </c>
     </row>
     <row r="475" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B475" s="1">
-        <v>3104013</v>
+      <c r="B475" s="1" t="s">
+        <v>958</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>478</v>
@@ -8499,8 +9946,8 @@
       </c>
     </row>
     <row r="476" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B476" s="1">
-        <v>3104004</v>
+      <c r="B476" s="1" t="s">
+        <v>959</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>479</v>
@@ -8513,8 +9960,8 @@
       </c>
     </row>
     <row r="477" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B477" s="1">
-        <v>3105005</v>
+      <c r="B477" s="1" t="s">
+        <v>960</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>480</v>
@@ -8527,8 +9974,8 @@
       </c>
     </row>
     <row r="478" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B478" s="1">
-        <v>3105003</v>
+      <c r="B478" s="1" t="s">
+        <v>961</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>104</v>
@@ -8541,8 +9988,8 @@
       </c>
     </row>
     <row r="479" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B479" s="1">
-        <v>3105001</v>
+      <c r="B479" s="1" t="s">
+        <v>962</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>481</v>
@@ -8555,8 +10002,8 @@
       </c>
     </row>
     <row r="480" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B480" s="1">
-        <v>3105004</v>
+      <c r="B480" s="1" t="s">
+        <v>963</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>482</v>
@@ -8569,8 +10016,8 @@
       </c>
     </row>
     <row r="481" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B481" s="1">
-        <v>3105002</v>
+      <c r="B481" s="1" t="s">
+        <v>964</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>483</v>
